--- a/excels/rl_100_r_bonus_base.xlsx
+++ b/excels/rl_100_r_bonus_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27960" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27960" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="reaso" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_100_epocheNumber" localSheetId="2">epoches!$A$1:$P$82</definedName>
+    <definedName name="_100_epocheNumber" localSheetId="2">epoches!$A$1:$Q$82</definedName>
     <definedName name="_100_reason" localSheetId="3">reaso!$A$1:$P$82</definedName>
     <definedName name="_100_stepsNumber" localSheetId="1">length!$A$1:$R$82</definedName>
     <definedName name="_100_time" localSheetId="0">time!$A$1:$P$82</definedName>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="196">
   <si>
     <t>maze</t>
   </si>
@@ -760,20 +760,13 @@
     <cellStyle name="Dobre" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1109,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F82" sqref="A74:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5223,12 +5216,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P82">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5240,8 +5233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:H73"/>
+    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46:R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7538,6 +7531,9 @@
       <c r="L46" s="1">
         <v>204</v>
       </c>
+      <c r="M46" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="N46" s="1">
         <v>185</v>
       </c>
@@ -7588,6 +7584,9 @@
       <c r="L47">
         <v>63129</v>
       </c>
+      <c r="M47" t="s">
+        <v>157</v>
+      </c>
       <c r="N47">
         <v>9069</v>
       </c>
@@ -7638,6 +7637,9 @@
       <c r="L48">
         <v>22457</v>
       </c>
+      <c r="M48" t="s">
+        <v>158</v>
+      </c>
       <c r="N48">
         <v>1093</v>
       </c>
@@ -7688,6 +7690,9 @@
       <c r="L49">
         <v>97392</v>
       </c>
+      <c r="M49" t="s">
+        <v>159</v>
+      </c>
       <c r="N49">
         <v>4529</v>
       </c>
@@ -7738,6 +7743,9 @@
       <c r="L50">
         <v>41939</v>
       </c>
+      <c r="M50" t="s">
+        <v>160</v>
+      </c>
       <c r="N50">
         <v>2843</v>
       </c>
@@ -7788,6 +7796,9 @@
       <c r="L51">
         <v>34310</v>
       </c>
+      <c r="M51" t="s">
+        <v>161</v>
+      </c>
       <c r="N51">
         <v>427</v>
       </c>
@@ -7838,6 +7849,9 @@
       <c r="L52">
         <v>38543</v>
       </c>
+      <c r="M52" t="s">
+        <v>162</v>
+      </c>
       <c r="N52">
         <v>430</v>
       </c>
@@ -7888,6 +7902,9 @@
       <c r="L53">
         <v>7997</v>
       </c>
+      <c r="M53" t="s">
+        <v>163</v>
+      </c>
       <c r="N53">
         <v>1763</v>
       </c>
@@ -7938,6 +7955,9 @@
       <c r="L54">
         <v>3106</v>
       </c>
+      <c r="M54" t="s">
+        <v>164</v>
+      </c>
       <c r="N54">
         <v>161</v>
       </c>
@@ -7988,6 +8008,9 @@
       <c r="L55" s="1">
         <v>204</v>
       </c>
+      <c r="M55" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="N55" s="1">
         <v>173</v>
       </c>
@@ -8038,6 +8061,9 @@
       <c r="L56">
         <v>191172</v>
       </c>
+      <c r="M56" t="s">
+        <v>166</v>
+      </c>
       <c r="N56">
         <v>19994</v>
       </c>
@@ -8088,6 +8114,9 @@
       <c r="L57">
         <v>104707</v>
       </c>
+      <c r="M57" t="s">
+        <v>167</v>
+      </c>
       <c r="N57">
         <v>21801</v>
       </c>
@@ -8138,6 +8167,9 @@
       <c r="L58">
         <v>74416</v>
       </c>
+      <c r="M58" t="s">
+        <v>168</v>
+      </c>
       <c r="N58">
         <v>34845</v>
       </c>
@@ -8188,6 +8220,9 @@
       <c r="L59">
         <v>72608</v>
       </c>
+      <c r="M59" t="s">
+        <v>169</v>
+      </c>
       <c r="N59">
         <v>9751</v>
       </c>
@@ -8238,6 +8273,9 @@
       <c r="L60">
         <v>49952</v>
       </c>
+      <c r="M60" t="s">
+        <v>170</v>
+      </c>
       <c r="N60">
         <v>12666</v>
       </c>
@@ -8288,6 +8326,9 @@
       <c r="L61">
         <v>37890</v>
       </c>
+      <c r="M61" t="s">
+        <v>171</v>
+      </c>
       <c r="N61">
         <v>1494</v>
       </c>
@@ -8338,6 +8379,9 @@
       <c r="L62">
         <v>20434</v>
       </c>
+      <c r="M62" t="s">
+        <v>172</v>
+      </c>
       <c r="N62">
         <v>1575</v>
       </c>
@@ -8388,6 +8432,9 @@
       <c r="L63">
         <v>4968</v>
       </c>
+      <c r="M63" t="s">
+        <v>173</v>
+      </c>
       <c r="N63">
         <v>159</v>
       </c>
@@ -8438,6 +8485,9 @@
       <c r="L64" s="1">
         <v>204</v>
       </c>
+      <c r="M64" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="N64" s="1">
         <v>159</v>
       </c>
@@ -8488,6 +8538,9 @@
       <c r="L65">
         <v>103948</v>
       </c>
+      <c r="M65" t="s">
+        <v>175</v>
+      </c>
       <c r="N65">
         <v>858</v>
       </c>
@@ -8538,6 +8591,9 @@
       <c r="L66">
         <v>18388</v>
       </c>
+      <c r="M66" t="s">
+        <v>176</v>
+      </c>
       <c r="N66">
         <v>19470</v>
       </c>
@@ -8588,6 +8644,9 @@
       <c r="L67">
         <v>29966</v>
       </c>
+      <c r="M67" t="s">
+        <v>177</v>
+      </c>
       <c r="N67">
         <v>26226</v>
       </c>
@@ -8638,6 +8697,9 @@
       <c r="L68">
         <v>128037</v>
       </c>
+      <c r="M68" t="s">
+        <v>178</v>
+      </c>
       <c r="N68">
         <v>9328</v>
       </c>
@@ -8688,6 +8750,9 @@
       <c r="L69">
         <v>94845</v>
       </c>
+      <c r="M69" t="s">
+        <v>179</v>
+      </c>
       <c r="N69">
         <v>10196</v>
       </c>
@@ -8738,6 +8803,9 @@
       <c r="L70">
         <v>23976</v>
       </c>
+      <c r="M70" t="s">
+        <v>180</v>
+      </c>
       <c r="N70">
         <v>13744</v>
       </c>
@@ -8788,6 +8856,9 @@
       <c r="L71">
         <v>29305</v>
       </c>
+      <c r="M71" t="s">
+        <v>181</v>
+      </c>
       <c r="N71">
         <v>1446</v>
       </c>
@@ -8838,6 +8909,9 @@
       <c r="L72">
         <v>1409</v>
       </c>
+      <c r="M72" t="s">
+        <v>182</v>
+      </c>
       <c r="N72">
         <v>159</v>
       </c>
@@ -8888,6 +8962,9 @@
       <c r="L73" s="1">
         <v>204</v>
       </c>
+      <c r="M73" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="N73" s="1">
         <v>159</v>
       </c>
@@ -8938,6 +9015,9 @@
       <c r="L74">
         <v>35438</v>
       </c>
+      <c r="M74" t="s">
+        <v>184</v>
+      </c>
       <c r="N74">
         <v>900</v>
       </c>
@@ -8988,6 +9068,9 @@
       <c r="L75">
         <v>138540</v>
       </c>
+      <c r="M75" t="s">
+        <v>185</v>
+      </c>
       <c r="N75">
         <v>4318</v>
       </c>
@@ -9038,6 +9121,9 @@
       <c r="L76">
         <v>128181</v>
       </c>
+      <c r="M76" t="s">
+        <v>186</v>
+      </c>
       <c r="N76">
         <v>16689</v>
       </c>
@@ -9088,6 +9174,9 @@
       <c r="L77">
         <v>36063</v>
       </c>
+      <c r="M77" t="s">
+        <v>187</v>
+      </c>
       <c r="N77">
         <v>16848</v>
       </c>
@@ -9138,6 +9227,9 @@
       <c r="L78">
         <v>34421</v>
       </c>
+      <c r="M78" t="s">
+        <v>188</v>
+      </c>
       <c r="N78">
         <v>12080</v>
       </c>
@@ -9188,6 +9280,9 @@
       <c r="L79">
         <v>48054</v>
       </c>
+      <c r="M79" t="s">
+        <v>189</v>
+      </c>
       <c r="N79">
         <v>1090</v>
       </c>
@@ -9238,6 +9333,9 @@
       <c r="L80">
         <v>12024</v>
       </c>
+      <c r="M80" t="s">
+        <v>190</v>
+      </c>
       <c r="N80">
         <v>842</v>
       </c>
@@ -9288,6 +9386,9 @@
       <c r="L81">
         <v>1262</v>
       </c>
+      <c r="M81" t="s">
+        <v>191</v>
+      </c>
       <c r="N81">
         <v>161</v>
       </c>
@@ -9337,6 +9438,9 @@
       </c>
       <c r="L82" s="1">
         <v>204</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="N82" s="1">
         <v>255</v>
@@ -9485,10 +9589,4132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="12" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>69</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>101</v>
+      </c>
+      <c r="N2">
+        <v>52</v>
+      </c>
+      <c r="O2">
+        <v>39</v>
+      </c>
+      <c r="P2">
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>53</v>
+      </c>
+      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>116</v>
+      </c>
+      <c r="N3">
+        <v>87</v>
+      </c>
+      <c r="O3">
+        <v>70</v>
+      </c>
+      <c r="P3">
+        <v>48</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>105</v>
+      </c>
+      <c r="I4">
+        <v>73</v>
+      </c>
+      <c r="J4">
+        <v>61</v>
+      </c>
+      <c r="K4">
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>182</v>
+      </c>
+      <c r="N4">
+        <v>117</v>
+      </c>
+      <c r="O4">
+        <v>93</v>
+      </c>
+      <c r="P4">
+        <v>76</v>
+      </c>
+      <c r="Q4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>117</v>
+      </c>
+      <c r="C5">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>154</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+      <c r="J5">
+        <v>88</v>
+      </c>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>228</v>
+      </c>
+      <c r="N5">
+        <v>157</v>
+      </c>
+      <c r="O5">
+        <v>148</v>
+      </c>
+      <c r="P5">
+        <v>109</v>
+      </c>
+      <c r="Q5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>164</v>
+      </c>
+      <c r="C6">
+        <v>143</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>208</v>
+      </c>
+      <c r="I6">
+        <v>163</v>
+      </c>
+      <c r="J6">
+        <v>121</v>
+      </c>
+      <c r="K6">
+        <v>54</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>331</v>
+      </c>
+      <c r="N6">
+        <v>256</v>
+      </c>
+      <c r="O6">
+        <v>217</v>
+      </c>
+      <c r="P6">
+        <v>153</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>233</v>
+      </c>
+      <c r="C7">
+        <v>214</v>
+      </c>
+      <c r="D7">
+        <v>138</v>
+      </c>
+      <c r="E7">
+        <v>61</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>306</v>
+      </c>
+      <c r="I7">
+        <v>244</v>
+      </c>
+      <c r="J7">
+        <v>191</v>
+      </c>
+      <c r="K7">
+        <v>69</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>519</v>
+      </c>
+      <c r="N7">
+        <v>396</v>
+      </c>
+      <c r="O7">
+        <v>315</v>
+      </c>
+      <c r="P7">
+        <v>170</v>
+      </c>
+      <c r="Q7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>395</v>
+      </c>
+      <c r="C8">
+        <v>345</v>
+      </c>
+      <c r="D8">
+        <v>163</v>
+      </c>
+      <c r="E8">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>510</v>
+      </c>
+      <c r="I8">
+        <v>411</v>
+      </c>
+      <c r="J8">
+        <v>308</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>210</v>
+      </c>
+      <c r="N8">
+        <v>690</v>
+      </c>
+      <c r="O8">
+        <v>512</v>
+      </c>
+      <c r="P8">
+        <v>229</v>
+      </c>
+      <c r="Q8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>861</v>
+      </c>
+      <c r="C9">
+        <v>748</v>
+      </c>
+      <c r="D9">
+        <v>171</v>
+      </c>
+      <c r="E9">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>655</v>
+      </c>
+      <c r="I9">
+        <v>946</v>
+      </c>
+      <c r="J9">
+        <v>326</v>
+      </c>
+      <c r="K9">
+        <v>87</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>286</v>
+      </c>
+      <c r="N9">
+        <v>1001</v>
+      </c>
+      <c r="O9">
+        <v>890</v>
+      </c>
+      <c r="P9">
+        <v>246</v>
+      </c>
+      <c r="Q9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>256</v>
+      </c>
+      <c r="C10">
+        <v>697</v>
+      </c>
+      <c r="D10">
+        <v>139</v>
+      </c>
+      <c r="E10">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>1001</v>
+      </c>
+      <c r="I10">
+        <v>1001</v>
+      </c>
+      <c r="J10">
+        <v>256</v>
+      </c>
+      <c r="K10">
+        <v>76</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>125</v>
+      </c>
+      <c r="N10">
+        <v>1001</v>
+      </c>
+      <c r="O10">
+        <v>706</v>
+      </c>
+      <c r="P10">
+        <v>239</v>
+      </c>
+      <c r="Q10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>101</v>
+      </c>
+      <c r="N11">
+        <v>66</v>
+      </c>
+      <c r="O11">
+        <v>46</v>
+      </c>
+      <c r="P11">
+        <v>48</v>
+      </c>
+      <c r="Q11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>73</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>124</v>
+      </c>
+      <c r="N12">
+        <v>85</v>
+      </c>
+      <c r="O12">
+        <v>77</v>
+      </c>
+      <c r="P12">
+        <v>63</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>108</v>
+      </c>
+      <c r="I13">
+        <v>72</v>
+      </c>
+      <c r="J13">
+        <v>67</v>
+      </c>
+      <c r="K13">
+        <v>55</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>145</v>
+      </c>
+      <c r="N13">
+        <v>128</v>
+      </c>
+      <c r="O13">
+        <v>104</v>
+      </c>
+      <c r="P13">
+        <v>89</v>
+      </c>
+      <c r="Q13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>99</v>
+      </c>
+      <c r="J14">
+        <v>77</v>
+      </c>
+      <c r="K14">
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>168</v>
+      </c>
+      <c r="N14">
+        <v>147</v>
+      </c>
+      <c r="O14">
+        <v>130</v>
+      </c>
+      <c r="P14">
+        <v>111</v>
+      </c>
+      <c r="Q14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>118</v>
+      </c>
+      <c r="C15">
+        <v>107</v>
+      </c>
+      <c r="D15">
+        <v>83</v>
+      </c>
+      <c r="E15">
+        <v>83</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>168</v>
+      </c>
+      <c r="I15">
+        <v>136</v>
+      </c>
+      <c r="J15">
+        <v>113</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>266</v>
+      </c>
+      <c r="N15">
+        <v>205</v>
+      </c>
+      <c r="O15">
+        <v>169</v>
+      </c>
+      <c r="P15">
+        <v>180</v>
+      </c>
+      <c r="Q15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>189</v>
+      </c>
+      <c r="C16">
+        <v>159</v>
+      </c>
+      <c r="D16">
+        <v>135</v>
+      </c>
+      <c r="E16">
+        <v>117</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>240</v>
+      </c>
+      <c r="I16">
+        <v>206</v>
+      </c>
+      <c r="J16">
+        <v>174</v>
+      </c>
+      <c r="K16">
+        <v>140</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>394</v>
+      </c>
+      <c r="N16">
+        <v>346</v>
+      </c>
+      <c r="O16">
+        <v>290</v>
+      </c>
+      <c r="P16">
+        <v>266</v>
+      </c>
+      <c r="Q16">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>293</v>
+      </c>
+      <c r="C17">
+        <v>270</v>
+      </c>
+      <c r="D17">
+        <v>217</v>
+      </c>
+      <c r="E17">
+        <v>182</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>395</v>
+      </c>
+      <c r="I17">
+        <v>349</v>
+      </c>
+      <c r="J17">
+        <v>292</v>
+      </c>
+      <c r="K17">
+        <v>236</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>902</v>
+      </c>
+      <c r="N17">
+        <v>671</v>
+      </c>
+      <c r="O17">
+        <v>515</v>
+      </c>
+      <c r="P17">
+        <v>417</v>
+      </c>
+      <c r="Q17">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>619</v>
+      </c>
+      <c r="C18">
+        <v>529</v>
+      </c>
+      <c r="D18">
+        <v>464</v>
+      </c>
+      <c r="E18">
+        <v>323</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>95</v>
+      </c>
+      <c r="I18">
+        <v>1001</v>
+      </c>
+      <c r="J18">
+        <v>668</v>
+      </c>
+      <c r="K18">
+        <v>451</v>
+      </c>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>180</v>
+      </c>
+      <c r="N18">
+        <v>497</v>
+      </c>
+      <c r="O18">
+        <v>1001</v>
+      </c>
+      <c r="P18">
+        <v>1001</v>
+      </c>
+      <c r="Q18">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>764</v>
+      </c>
+      <c r="C19">
+        <v>1001</v>
+      </c>
+      <c r="D19">
+        <v>920</v>
+      </c>
+      <c r="E19">
+        <v>330</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>586</v>
+      </c>
+      <c r="I19">
+        <v>488</v>
+      </c>
+      <c r="J19">
+        <v>543</v>
+      </c>
+      <c r="K19">
+        <v>476</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>564</v>
+      </c>
+      <c r="N19">
+        <v>1001</v>
+      </c>
+      <c r="O19">
+        <v>774</v>
+      </c>
+      <c r="P19">
+        <v>1001</v>
+      </c>
+      <c r="Q19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>51</v>
+      </c>
+      <c r="I20">
+        <v>42</v>
+      </c>
+      <c r="J20">
+        <v>34</v>
+      </c>
+      <c r="K20">
+        <v>27</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>99</v>
+      </c>
+      <c r="N20">
+        <v>71</v>
+      </c>
+      <c r="O20">
+        <v>48</v>
+      </c>
+      <c r="P20">
+        <v>50</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>33</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>77</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>39</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>122</v>
+      </c>
+      <c r="N21">
+        <v>99</v>
+      </c>
+      <c r="O21">
+        <v>78</v>
+      </c>
+      <c r="P21">
+        <v>64</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>73</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>44</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>66</v>
+      </c>
+      <c r="J22">
+        <v>58</v>
+      </c>
+      <c r="K22">
+        <v>51</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>141</v>
+      </c>
+      <c r="N22">
+        <v>118</v>
+      </c>
+      <c r="O22">
+        <v>82</v>
+      </c>
+      <c r="P22">
+        <v>71</v>
+      </c>
+      <c r="Q22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>79</v>
+      </c>
+      <c r="D23">
+        <v>69</v>
+      </c>
+      <c r="E23">
+        <v>58</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>112</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>78</v>
+      </c>
+      <c r="K23">
+        <v>69</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>194</v>
+      </c>
+      <c r="N23">
+        <v>161</v>
+      </c>
+      <c r="O23">
+        <v>120</v>
+      </c>
+      <c r="P23">
+        <v>114</v>
+      </c>
+      <c r="Q23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>106</v>
+      </c>
+      <c r="C24">
+        <v>97</v>
+      </c>
+      <c r="D24">
+        <v>85</v>
+      </c>
+      <c r="E24">
+        <v>73</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>141</v>
+      </c>
+      <c r="I24">
+        <v>124</v>
+      </c>
+      <c r="J24">
+        <v>102</v>
+      </c>
+      <c r="K24">
+        <v>89</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="M24">
+        <v>232</v>
+      </c>
+      <c r="N24">
+        <v>217</v>
+      </c>
+      <c r="O24">
+        <v>163</v>
+      </c>
+      <c r="P24">
+        <v>144</v>
+      </c>
+      <c r="Q24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>150</v>
+      </c>
+      <c r="C25">
+        <v>149</v>
+      </c>
+      <c r="D25">
+        <v>114</v>
+      </c>
+      <c r="E25">
+        <v>105</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>203</v>
+      </c>
+      <c r="I25">
+        <v>179</v>
+      </c>
+      <c r="J25">
+        <v>151</v>
+      </c>
+      <c r="K25">
+        <v>124</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>366</v>
+      </c>
+      <c r="N25">
+        <v>330</v>
+      </c>
+      <c r="O25">
+        <v>241</v>
+      </c>
+      <c r="P25">
+        <v>249</v>
+      </c>
+      <c r="Q25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>244</v>
+      </c>
+      <c r="C26">
+        <v>214</v>
+      </c>
+      <c r="D26">
+        <v>185</v>
+      </c>
+      <c r="E26">
+        <v>167</v>
+      </c>
+      <c r="F26">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>319</v>
+      </c>
+      <c r="I26">
+        <v>308</v>
+      </c>
+      <c r="J26">
+        <v>248</v>
+      </c>
+      <c r="K26">
+        <v>209</v>
+      </c>
+      <c r="L26">
+        <v>64</v>
+      </c>
+      <c r="M26">
+        <v>876</v>
+      </c>
+      <c r="N26">
+        <v>726</v>
+      </c>
+      <c r="O26">
+        <v>508</v>
+      </c>
+      <c r="P26">
+        <v>429</v>
+      </c>
+      <c r="Q26">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>525</v>
+      </c>
+      <c r="C27">
+        <v>470</v>
+      </c>
+      <c r="D27">
+        <v>380</v>
+      </c>
+      <c r="E27">
+        <v>338</v>
+      </c>
+      <c r="F27">
+        <v>46</v>
+      </c>
+      <c r="H27">
+        <v>1001</v>
+      </c>
+      <c r="I27">
+        <v>1001</v>
+      </c>
+      <c r="J27">
+        <v>753</v>
+      </c>
+      <c r="K27">
+        <v>462</v>
+      </c>
+      <c r="L27">
+        <v>148</v>
+      </c>
+      <c r="M27">
+        <v>371</v>
+      </c>
+      <c r="N27">
+        <v>564</v>
+      </c>
+      <c r="O27">
+        <v>968</v>
+      </c>
+      <c r="P27">
+        <v>1001</v>
+      </c>
+      <c r="Q27">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>602</v>
+      </c>
+      <c r="C28">
+        <v>616</v>
+      </c>
+      <c r="D28">
+        <v>1001</v>
+      </c>
+      <c r="E28">
+        <v>641</v>
+      </c>
+      <c r="F28">
+        <v>69</v>
+      </c>
+      <c r="H28">
+        <v>504</v>
+      </c>
+      <c r="I28">
+        <v>1001</v>
+      </c>
+      <c r="J28">
+        <v>1001</v>
+      </c>
+      <c r="K28">
+        <v>856</v>
+      </c>
+      <c r="L28">
+        <v>195</v>
+      </c>
+      <c r="M28">
+        <v>367</v>
+      </c>
+      <c r="N28">
+        <v>620</v>
+      </c>
+      <c r="O28">
+        <v>1001</v>
+      </c>
+      <c r="P28">
+        <v>1001</v>
+      </c>
+      <c r="Q28">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>53</v>
+      </c>
+      <c r="I29">
+        <v>46</v>
+      </c>
+      <c r="J29">
+        <v>42</v>
+      </c>
+      <c r="K29">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>82</v>
+      </c>
+      <c r="N29">
+        <v>91</v>
+      </c>
+      <c r="O29">
+        <v>58</v>
+      </c>
+      <c r="P29">
+        <v>48</v>
+      </c>
+      <c r="Q29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>33</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>64</v>
+      </c>
+      <c r="I30">
+        <v>67</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>37</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>110</v>
+      </c>
+      <c r="N30">
+        <v>93</v>
+      </c>
+      <c r="O30">
+        <v>66</v>
+      </c>
+      <c r="P30">
+        <v>62</v>
+      </c>
+      <c r="Q30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>58</v>
+      </c>
+      <c r="C31">
+        <v>48</v>
+      </c>
+      <c r="D31">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>42</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>85</v>
+      </c>
+      <c r="I31">
+        <v>74</v>
+      </c>
+      <c r="J31">
+        <v>61</v>
+      </c>
+      <c r="K31">
+        <v>61</v>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
+      <c r="M31">
+        <v>137</v>
+      </c>
+      <c r="N31">
+        <v>108</v>
+      </c>
+      <c r="O31">
+        <v>87</v>
+      </c>
+      <c r="P31">
+        <v>88</v>
+      </c>
+      <c r="Q31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>66</v>
+      </c>
+      <c r="D32">
+        <v>51</v>
+      </c>
+      <c r="E32">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>93</v>
+      </c>
+      <c r="I32">
+        <v>95</v>
+      </c>
+      <c r="J32">
+        <v>74</v>
+      </c>
+      <c r="K32">
+        <v>67</v>
+      </c>
+      <c r="L32">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>168</v>
+      </c>
+      <c r="N32">
+        <v>164</v>
+      </c>
+      <c r="O32">
+        <v>106</v>
+      </c>
+      <c r="P32">
+        <v>108</v>
+      </c>
+      <c r="Q32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>104</v>
+      </c>
+      <c r="C33">
+        <v>83</v>
+      </c>
+      <c r="D33">
+        <v>72</v>
+      </c>
+      <c r="E33">
+        <v>68</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>139</v>
+      </c>
+      <c r="I33">
+        <v>116</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>83</v>
+      </c>
+      <c r="L33">
+        <v>36</v>
+      </c>
+      <c r="M33">
+        <v>233</v>
+      </c>
+      <c r="N33">
+        <v>197</v>
+      </c>
+      <c r="O33">
+        <v>150</v>
+      </c>
+      <c r="P33">
+        <v>144</v>
+      </c>
+      <c r="Q33">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>129</v>
+      </c>
+      <c r="C34">
+        <v>123</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>92</v>
+      </c>
+      <c r="F34">
+        <v>47</v>
+      </c>
+      <c r="H34">
+        <v>193</v>
+      </c>
+      <c r="I34">
+        <v>162</v>
+      </c>
+      <c r="J34">
+        <v>138</v>
+      </c>
+      <c r="K34">
+        <v>105</v>
+      </c>
+      <c r="L34">
+        <v>54</v>
+      </c>
+      <c r="M34">
+        <v>338</v>
+      </c>
+      <c r="N34">
+        <v>323</v>
+      </c>
+      <c r="O34">
+        <v>232</v>
+      </c>
+      <c r="P34">
+        <v>211</v>
+      </c>
+      <c r="Q34">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>198</v>
+      </c>
+      <c r="C35">
+        <v>191</v>
+      </c>
+      <c r="D35">
+        <v>157</v>
+      </c>
+      <c r="E35">
+        <v>140</v>
+      </c>
+      <c r="F35">
+        <v>81</v>
+      </c>
+      <c r="H35">
+        <v>268</v>
+      </c>
+      <c r="I35">
+        <v>277</v>
+      </c>
+      <c r="J35">
+        <v>209</v>
+      </c>
+      <c r="K35">
+        <v>175</v>
+      </c>
+      <c r="L35">
+        <v>102</v>
+      </c>
+      <c r="M35">
+        <v>892</v>
+      </c>
+      <c r="N35">
+        <v>715</v>
+      </c>
+      <c r="O35">
+        <v>496</v>
+      </c>
+      <c r="P35">
+        <v>444</v>
+      </c>
+      <c r="Q35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>447</v>
+      </c>
+      <c r="C36">
+        <v>434</v>
+      </c>
+      <c r="D36">
+        <v>329</v>
+      </c>
+      <c r="E36">
+        <v>313</v>
+      </c>
+      <c r="F36">
+        <v>165</v>
+      </c>
+      <c r="H36">
+        <v>1001</v>
+      </c>
+      <c r="I36">
+        <v>1001</v>
+      </c>
+      <c r="J36">
+        <v>894</v>
+      </c>
+      <c r="K36">
+        <v>514</v>
+      </c>
+      <c r="L36">
+        <v>244</v>
+      </c>
+      <c r="M36">
+        <v>314</v>
+      </c>
+      <c r="N36">
+        <v>860</v>
+      </c>
+      <c r="O36">
+        <v>1001</v>
+      </c>
+      <c r="P36">
+        <v>1001</v>
+      </c>
+      <c r="Q36">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>61</v>
+      </c>
+      <c r="C37">
+        <v>552</v>
+      </c>
+      <c r="D37">
+        <v>792</v>
+      </c>
+      <c r="E37">
+        <v>879</v>
+      </c>
+      <c r="F37">
+        <v>253</v>
+      </c>
+      <c r="H37">
+        <v>369</v>
+      </c>
+      <c r="I37">
+        <v>842</v>
+      </c>
+      <c r="J37">
+        <v>295</v>
+      </c>
+      <c r="K37">
+        <v>1001</v>
+      </c>
+      <c r="L37">
+        <v>285</v>
+      </c>
+      <c r="M37">
+        <v>261</v>
+      </c>
+      <c r="N37">
+        <v>974</v>
+      </c>
+      <c r="O37">
+        <v>324</v>
+      </c>
+      <c r="P37">
+        <v>1001</v>
+      </c>
+      <c r="Q37">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>52</v>
+      </c>
+      <c r="I38">
+        <v>50</v>
+      </c>
+      <c r="J38">
+        <v>42</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>112</v>
+      </c>
+      <c r="N38">
+        <v>75</v>
+      </c>
+      <c r="O38">
+        <v>58</v>
+      </c>
+      <c r="P38">
+        <v>52</v>
+      </c>
+      <c r="Q38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>34</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>55</v>
+      </c>
+      <c r="I39">
+        <v>47</v>
+      </c>
+      <c r="J39">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>42</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>126</v>
+      </c>
+      <c r="N39">
+        <v>97</v>
+      </c>
+      <c r="O39">
+        <v>77</v>
+      </c>
+      <c r="P39">
+        <v>66</v>
+      </c>
+      <c r="Q39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>57</v>
+      </c>
+      <c r="I40">
+        <v>69</v>
+      </c>
+      <c r="J40">
+        <v>56</v>
+      </c>
+      <c r="K40">
+        <v>50</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>150</v>
+      </c>
+      <c r="N40">
+        <v>116</v>
+      </c>
+      <c r="O40">
+        <v>86</v>
+      </c>
+      <c r="P40">
+        <v>76</v>
+      </c>
+      <c r="Q40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>61</v>
+      </c>
+      <c r="D41">
+        <v>59</v>
+      </c>
+      <c r="E41">
+        <v>47</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <v>95</v>
+      </c>
+      <c r="I41">
+        <v>85</v>
+      </c>
+      <c r="J41">
+        <v>70</v>
+      </c>
+      <c r="K41">
+        <v>53</v>
+      </c>
+      <c r="L41">
+        <v>23</v>
+      </c>
+      <c r="M41">
+        <v>180</v>
+      </c>
+      <c r="N41">
+        <v>162</v>
+      </c>
+      <c r="O41">
+        <v>101</v>
+      </c>
+      <c r="P41">
+        <v>90</v>
+      </c>
+      <c r="Q41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <v>87</v>
+      </c>
+      <c r="C42">
+        <v>89</v>
+      </c>
+      <c r="D42">
+        <v>66</v>
+      </c>
+      <c r="E42">
+        <v>52</v>
+      </c>
+      <c r="F42">
+        <v>31</v>
+      </c>
+      <c r="H42">
+        <v>121</v>
+      </c>
+      <c r="I42">
+        <v>112</v>
+      </c>
+      <c r="J42">
+        <v>85</v>
+      </c>
+      <c r="K42">
+        <v>80</v>
+      </c>
+      <c r="L42">
+        <v>35</v>
+      </c>
+      <c r="M42">
+        <v>210</v>
+      </c>
+      <c r="N42">
+        <v>195</v>
+      </c>
+      <c r="O42">
+        <v>143</v>
+      </c>
+      <c r="P42">
+        <v>142</v>
+      </c>
+      <c r="Q42">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>126</v>
+      </c>
+      <c r="C43">
+        <v>119</v>
+      </c>
+      <c r="D43">
+        <v>99</v>
+      </c>
+      <c r="E43">
+        <v>84</v>
+      </c>
+      <c r="F43">
+        <v>47</v>
+      </c>
+      <c r="H43">
+        <v>173</v>
+      </c>
+      <c r="I43">
+        <v>160</v>
+      </c>
+      <c r="J43">
+        <v>119</v>
+      </c>
+      <c r="K43">
+        <v>110</v>
+      </c>
+      <c r="L43">
+        <v>58</v>
+      </c>
+      <c r="M43">
+        <v>343</v>
+      </c>
+      <c r="N43">
+        <v>314</v>
+      </c>
+      <c r="O43">
+        <v>234</v>
+      </c>
+      <c r="P43">
+        <v>229</v>
+      </c>
+      <c r="Q43">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>198</v>
+      </c>
+      <c r="C44">
+        <v>178</v>
+      </c>
+      <c r="D44">
+        <v>150</v>
+      </c>
+      <c r="E44">
+        <v>135</v>
+      </c>
+      <c r="F44">
+        <v>78</v>
+      </c>
+      <c r="H44">
+        <v>283</v>
+      </c>
+      <c r="I44">
+        <v>259</v>
+      </c>
+      <c r="J44">
+        <v>208</v>
+      </c>
+      <c r="K44">
+        <v>176</v>
+      </c>
+      <c r="L44">
+        <v>99</v>
+      </c>
+      <c r="M44">
+        <v>904</v>
+      </c>
+      <c r="N44">
+        <v>739</v>
+      </c>
+      <c r="O44">
+        <v>537</v>
+      </c>
+      <c r="P44">
+        <v>486</v>
+      </c>
+      <c r="Q44">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>434</v>
+      </c>
+      <c r="C45">
+        <v>409</v>
+      </c>
+      <c r="D45">
+        <v>300</v>
+      </c>
+      <c r="E45">
+        <v>273</v>
+      </c>
+      <c r="F45">
+        <v>165</v>
+      </c>
+      <c r="H45">
+        <v>1001</v>
+      </c>
+      <c r="I45">
+        <v>1001</v>
+      </c>
+      <c r="J45">
+        <v>1001</v>
+      </c>
+      <c r="K45">
+        <v>634</v>
+      </c>
+      <c r="L45">
+        <v>253</v>
+      </c>
+      <c r="M45">
+        <v>269</v>
+      </c>
+      <c r="N45">
+        <v>453</v>
+      </c>
+      <c r="O45">
+        <v>1001</v>
+      </c>
+      <c r="P45">
+        <v>1001</v>
+      </c>
+      <c r="Q45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="1" customFormat="1">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1">
+        <v>137</v>
+      </c>
+      <c r="C46" s="1">
+        <v>813</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F46" s="1">
+        <v>284</v>
+      </c>
+      <c r="H46" s="1">
+        <v>304</v>
+      </c>
+      <c r="I46" s="1">
+        <v>471</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="L46" s="1">
+        <v>214</v>
+      </c>
+      <c r="M46" s="1">
+        <v>184</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>34</v>
+      </c>
+      <c r="E47">
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>51</v>
+      </c>
+      <c r="I47">
+        <v>48</v>
+      </c>
+      <c r="J47">
+        <v>34</v>
+      </c>
+      <c r="K47">
+        <v>30</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>108</v>
+      </c>
+      <c r="N47">
+        <v>92</v>
+      </c>
+      <c r="O47">
+        <v>59</v>
+      </c>
+      <c r="P47">
+        <v>53</v>
+      </c>
+      <c r="Q47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48">
+        <v>42</v>
+      </c>
+      <c r="C48">
+        <v>44</v>
+      </c>
+      <c r="D48">
+        <v>38</v>
+      </c>
+      <c r="E48">
+        <v>31</v>
+      </c>
+      <c r="F48">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>58</v>
+      </c>
+      <c r="I48">
+        <v>62</v>
+      </c>
+      <c r="J48">
+        <v>37</v>
+      </c>
+      <c r="K48">
+        <v>29</v>
+      </c>
+      <c r="L48">
+        <v>11</v>
+      </c>
+      <c r="M48">
+        <v>103</v>
+      </c>
+      <c r="N48">
+        <v>100</v>
+      </c>
+      <c r="O48">
+        <v>72</v>
+      </c>
+      <c r="P48">
+        <v>72</v>
+      </c>
+      <c r="Q48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <v>35</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <v>76</v>
+      </c>
+      <c r="J49">
+        <v>48</v>
+      </c>
+      <c r="K49">
+        <v>46</v>
+      </c>
+      <c r="L49">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <v>135</v>
+      </c>
+      <c r="N49">
+        <v>128</v>
+      </c>
+      <c r="O49">
+        <v>100</v>
+      </c>
+      <c r="P49">
+        <v>78</v>
+      </c>
+      <c r="Q49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>66</v>
+      </c>
+      <c r="D50">
+        <v>51</v>
+      </c>
+      <c r="E50">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <v>24</v>
+      </c>
+      <c r="H50">
+        <v>85</v>
+      </c>
+      <c r="I50">
+        <v>94</v>
+      </c>
+      <c r="J50">
+        <v>69</v>
+      </c>
+      <c r="K50">
+        <v>68</v>
+      </c>
+      <c r="L50">
+        <v>23</v>
+      </c>
+      <c r="M50">
+        <v>162</v>
+      </c>
+      <c r="N50">
+        <v>145</v>
+      </c>
+      <c r="O50">
+        <v>106</v>
+      </c>
+      <c r="P50">
+        <v>96</v>
+      </c>
+      <c r="Q50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>91</v>
+      </c>
+      <c r="C51">
+        <v>85</v>
+      </c>
+      <c r="D51">
+        <v>59</v>
+      </c>
+      <c r="E51">
+        <v>60</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="H51">
+        <v>119</v>
+      </c>
+      <c r="I51">
+        <v>112</v>
+      </c>
+      <c r="J51">
+        <v>84</v>
+      </c>
+      <c r="K51">
+        <v>78</v>
+      </c>
+      <c r="L51">
+        <v>36</v>
+      </c>
+      <c r="M51">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <v>188</v>
+      </c>
+      <c r="O51">
+        <v>141</v>
+      </c>
+      <c r="P51">
+        <v>124</v>
+      </c>
+      <c r="Q51">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>123</v>
+      </c>
+      <c r="C52">
+        <v>101</v>
+      </c>
+      <c r="D52">
+        <v>82</v>
+      </c>
+      <c r="E52">
+        <v>77</v>
+      </c>
+      <c r="F52">
+        <v>44</v>
+      </c>
+      <c r="H52">
+        <v>163</v>
+      </c>
+      <c r="I52">
+        <v>153</v>
+      </c>
+      <c r="J52">
+        <v>116</v>
+      </c>
+      <c r="K52">
+        <v>104</v>
+      </c>
+      <c r="L52">
+        <v>54</v>
+      </c>
+      <c r="M52">
+        <v>367</v>
+      </c>
+      <c r="N52">
+        <v>333</v>
+      </c>
+      <c r="O52">
+        <v>246</v>
+      </c>
+      <c r="P52">
+        <v>225</v>
+      </c>
+      <c r="Q52">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <v>190</v>
+      </c>
+      <c r="C53">
+        <v>171</v>
+      </c>
+      <c r="D53">
+        <v>125</v>
+      </c>
+      <c r="E53">
+        <v>129</v>
+      </c>
+      <c r="F53">
+        <v>70</v>
+      </c>
+      <c r="H53">
+        <v>257</v>
+      </c>
+      <c r="I53">
+        <v>251</v>
+      </c>
+      <c r="J53">
+        <v>210</v>
+      </c>
+      <c r="K53">
+        <v>161</v>
+      </c>
+      <c r="L53">
+        <v>86</v>
+      </c>
+      <c r="M53">
+        <v>783</v>
+      </c>
+      <c r="N53">
+        <v>797</v>
+      </c>
+      <c r="O53">
+        <v>559</v>
+      </c>
+      <c r="P53">
+        <v>485</v>
+      </c>
+      <c r="Q53">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>413</v>
+      </c>
+      <c r="C54">
+        <v>397</v>
+      </c>
+      <c r="D54">
+        <v>293</v>
+      </c>
+      <c r="E54">
+        <v>259</v>
+      </c>
+      <c r="F54">
+        <v>141</v>
+      </c>
+      <c r="H54">
+        <v>1001</v>
+      </c>
+      <c r="I54">
+        <v>1001</v>
+      </c>
+      <c r="J54">
+        <v>972</v>
+      </c>
+      <c r="K54">
+        <v>566</v>
+      </c>
+      <c r="L54">
+        <v>218</v>
+      </c>
+      <c r="M54">
+        <v>208</v>
+      </c>
+      <c r="N54">
+        <v>183</v>
+      </c>
+      <c r="O54">
+        <v>1001</v>
+      </c>
+      <c r="P54">
+        <v>1001</v>
+      </c>
+      <c r="Q54">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="1" customFormat="1">
+      <c r="A55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="1">
+        <v>346</v>
+      </c>
+      <c r="C55" s="1">
+        <v>757</v>
+      </c>
+      <c r="D55" s="1">
+        <v>506</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F55" s="1">
+        <v>235</v>
+      </c>
+      <c r="H55" s="1">
+        <v>289</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1001</v>
+      </c>
+      <c r="L55" s="1">
+        <v>171</v>
+      </c>
+      <c r="M55" s="1">
+        <v>174</v>
+      </c>
+      <c r="N55" s="1">
+        <v>410</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P55" s="1">
+        <v>1001</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56">
+        <v>34</v>
+      </c>
+      <c r="C56">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>28</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="H56">
+        <v>47</v>
+      </c>
+      <c r="I56">
+        <v>40</v>
+      </c>
+      <c r="J56">
+        <v>44</v>
+      </c>
+      <c r="K56">
+        <v>29</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>85</v>
+      </c>
+      <c r="N56">
+        <v>80</v>
+      </c>
+      <c r="O56">
+        <v>55</v>
+      </c>
+      <c r="P56">
+        <v>48</v>
+      </c>
+      <c r="Q56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57">
+        <v>40</v>
+      </c>
+      <c r="C57">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>32</v>
+      </c>
+      <c r="E57">
+        <v>36</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>61</v>
+      </c>
+      <c r="I57">
+        <v>55</v>
+      </c>
+      <c r="J57">
+        <v>42</v>
+      </c>
+      <c r="K57">
+        <v>45</v>
+      </c>
+      <c r="L57">
+        <v>9</v>
+      </c>
+      <c r="M57">
+        <v>107</v>
+      </c>
+      <c r="N57">
+        <v>94</v>
+      </c>
+      <c r="O57">
+        <v>72</v>
+      </c>
+      <c r="P57">
+        <v>76</v>
+      </c>
+      <c r="Q57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>48</v>
+      </c>
+      <c r="D58">
+        <v>39</v>
+      </c>
+      <c r="E58">
+        <v>38</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>71</v>
+      </c>
+      <c r="I58">
+        <v>65</v>
+      </c>
+      <c r="J58">
+        <v>51</v>
+      </c>
+      <c r="K58">
+        <v>47</v>
+      </c>
+      <c r="L58">
+        <v>16</v>
+      </c>
+      <c r="M58">
+        <v>110</v>
+      </c>
+      <c r="N58">
+        <v>107</v>
+      </c>
+      <c r="O58">
+        <v>90</v>
+      </c>
+      <c r="P58">
+        <v>76</v>
+      </c>
+      <c r="Q58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>71</v>
+      </c>
+      <c r="C59">
+        <v>70</v>
+      </c>
+      <c r="D59">
+        <v>46</v>
+      </c>
+      <c r="E59">
+        <v>51</v>
+      </c>
+      <c r="F59">
+        <v>21</v>
+      </c>
+      <c r="H59">
+        <v>97</v>
+      </c>
+      <c r="I59">
+        <v>86</v>
+      </c>
+      <c r="J59">
+        <v>71</v>
+      </c>
+      <c r="K59">
+        <v>66</v>
+      </c>
+      <c r="L59">
+        <v>21</v>
+      </c>
+      <c r="M59">
+        <v>150</v>
+      </c>
+      <c r="N59">
+        <v>163</v>
+      </c>
+      <c r="O59">
+        <v>109</v>
+      </c>
+      <c r="P59">
+        <v>91</v>
+      </c>
+      <c r="Q59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>90</v>
+      </c>
+      <c r="C60">
+        <v>82</v>
+      </c>
+      <c r="D60">
+        <v>65</v>
+      </c>
+      <c r="E60">
+        <v>52</v>
+      </c>
+      <c r="F60">
+        <v>26</v>
+      </c>
+      <c r="H60">
+        <v>106</v>
+      </c>
+      <c r="I60">
+        <v>117</v>
+      </c>
+      <c r="J60">
+        <v>79</v>
+      </c>
+      <c r="K60">
+        <v>75</v>
+      </c>
+      <c r="L60">
+        <v>32</v>
+      </c>
+      <c r="M60">
+        <v>208</v>
+      </c>
+      <c r="N60">
+        <v>188</v>
+      </c>
+      <c r="O60">
+        <v>137</v>
+      </c>
+      <c r="P60">
+        <v>126</v>
+      </c>
+      <c r="Q60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <v>112</v>
+      </c>
+      <c r="C61">
+        <v>112</v>
+      </c>
+      <c r="D61">
+        <v>83</v>
+      </c>
+      <c r="E61">
+        <v>80</v>
+      </c>
+      <c r="F61">
+        <v>41</v>
+      </c>
+      <c r="H61">
+        <v>149</v>
+      </c>
+      <c r="I61">
+        <v>137</v>
+      </c>
+      <c r="J61">
+        <v>108</v>
+      </c>
+      <c r="K61">
+        <v>107</v>
+      </c>
+      <c r="L61">
+        <v>46</v>
+      </c>
+      <c r="M61">
+        <v>277</v>
+      </c>
+      <c r="N61">
+        <v>310</v>
+      </c>
+      <c r="O61">
+        <v>239</v>
+      </c>
+      <c r="P61">
+        <v>221</v>
+      </c>
+      <c r="Q61">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62">
+        <v>158</v>
+      </c>
+      <c r="C62">
+        <v>147</v>
+      </c>
+      <c r="D62">
+        <v>132</v>
+      </c>
+      <c r="E62">
+        <v>120</v>
+      </c>
+      <c r="F62">
+        <v>68</v>
+      </c>
+      <c r="H62">
+        <v>259</v>
+      </c>
+      <c r="I62">
+        <v>255</v>
+      </c>
+      <c r="J62">
+        <v>194</v>
+      </c>
+      <c r="K62">
+        <v>175</v>
+      </c>
+      <c r="L62">
+        <v>76</v>
+      </c>
+      <c r="M62">
+        <v>830</v>
+      </c>
+      <c r="N62">
+        <v>892</v>
+      </c>
+      <c r="O62">
+        <v>606</v>
+      </c>
+      <c r="P62">
+        <v>563</v>
+      </c>
+      <c r="Q62">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63">
+        <v>433</v>
+      </c>
+      <c r="C63">
+        <v>416</v>
+      </c>
+      <c r="D63">
+        <v>318</v>
+      </c>
+      <c r="E63">
+        <v>287</v>
+      </c>
+      <c r="F63">
+        <v>131</v>
+      </c>
+      <c r="H63">
+        <v>1001</v>
+      </c>
+      <c r="I63">
+        <v>1001</v>
+      </c>
+      <c r="J63">
+        <v>1001</v>
+      </c>
+      <c r="K63">
+        <v>767</v>
+      </c>
+      <c r="L63">
+        <v>215</v>
+      </c>
+      <c r="M63">
+        <v>195</v>
+      </c>
+      <c r="N63">
+        <v>926</v>
+      </c>
+      <c r="O63">
+        <v>949</v>
+      </c>
+      <c r="P63">
+        <v>1001</v>
+      </c>
+      <c r="Q63">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="1" customFormat="1">
+      <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="1">
+        <v>305</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F64" s="1">
+        <v>211</v>
+      </c>
+      <c r="H64" s="1">
+        <v>242</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1001</v>
+      </c>
+      <c r="L64" s="1">
+        <v>192</v>
+      </c>
+      <c r="M64" s="1">
+        <v>194</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1001</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P64" s="1">
+        <v>1001</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65">
+        <v>44</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>35</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>51</v>
+      </c>
+      <c r="I65">
+        <v>43</v>
+      </c>
+      <c r="J65">
+        <v>44</v>
+      </c>
+      <c r="K65">
+        <v>32</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>87</v>
+      </c>
+      <c r="N65">
+        <v>80</v>
+      </c>
+      <c r="O65">
+        <v>54</v>
+      </c>
+      <c r="P65">
+        <v>57</v>
+      </c>
+      <c r="Q65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>43</v>
+      </c>
+      <c r="C66">
+        <v>42</v>
+      </c>
+      <c r="D66">
+        <v>34</v>
+      </c>
+      <c r="E66">
+        <v>32</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>63</v>
+      </c>
+      <c r="I66">
+        <v>51</v>
+      </c>
+      <c r="J66">
+        <v>53</v>
+      </c>
+      <c r="K66">
+        <v>41</v>
+      </c>
+      <c r="L66">
+        <v>12</v>
+      </c>
+      <c r="M66">
+        <v>104</v>
+      </c>
+      <c r="N66">
+        <v>102</v>
+      </c>
+      <c r="O66">
+        <v>71</v>
+      </c>
+      <c r="P66">
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67">
+        <v>49</v>
+      </c>
+      <c r="C67">
+        <v>49</v>
+      </c>
+      <c r="D67">
+        <v>38</v>
+      </c>
+      <c r="E67">
+        <v>34</v>
+      </c>
+      <c r="F67">
+        <v>15</v>
+      </c>
+      <c r="H67">
+        <v>63</v>
+      </c>
+      <c r="I67">
+        <v>66</v>
+      </c>
+      <c r="J67">
+        <v>52</v>
+      </c>
+      <c r="K67">
+        <v>47</v>
+      </c>
+      <c r="L67">
+        <v>17</v>
+      </c>
+      <c r="M67">
+        <v>124</v>
+      </c>
+      <c r="N67">
+        <v>113</v>
+      </c>
+      <c r="O67">
+        <v>76</v>
+      </c>
+      <c r="P67">
+        <v>76</v>
+      </c>
+      <c r="Q67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68">
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <v>63</v>
+      </c>
+      <c r="D68">
+        <v>49</v>
+      </c>
+      <c r="E68">
+        <v>44</v>
+      </c>
+      <c r="F68">
+        <v>19</v>
+      </c>
+      <c r="H68">
+        <v>91</v>
+      </c>
+      <c r="I68">
+        <v>85</v>
+      </c>
+      <c r="J68">
+        <v>65</v>
+      </c>
+      <c r="K68">
+        <v>65</v>
+      </c>
+      <c r="L68">
+        <v>22</v>
+      </c>
+      <c r="M68">
+        <v>160</v>
+      </c>
+      <c r="N68">
+        <v>160</v>
+      </c>
+      <c r="O68">
+        <v>111</v>
+      </c>
+      <c r="P68">
+        <v>99</v>
+      </c>
+      <c r="Q68">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>69</v>
+      </c>
+      <c r="D69">
+        <v>64</v>
+      </c>
+      <c r="E69">
+        <v>59</v>
+      </c>
+      <c r="F69">
+        <v>26</v>
+      </c>
+      <c r="H69">
+        <v>107</v>
+      </c>
+      <c r="I69">
+        <v>114</v>
+      </c>
+      <c r="J69">
+        <v>80</v>
+      </c>
+      <c r="K69">
+        <v>75</v>
+      </c>
+      <c r="L69">
+        <v>31</v>
+      </c>
+      <c r="M69">
+        <v>192</v>
+      </c>
+      <c r="N69">
+        <v>196</v>
+      </c>
+      <c r="O69">
+        <v>150</v>
+      </c>
+      <c r="P69">
+        <v>125</v>
+      </c>
+      <c r="Q69">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70">
+        <v>105</v>
+      </c>
+      <c r="C70">
+        <v>97</v>
+      </c>
+      <c r="D70">
+        <v>82</v>
+      </c>
+      <c r="E70">
+        <v>76</v>
+      </c>
+      <c r="F70">
+        <v>38</v>
+      </c>
+      <c r="H70">
+        <v>133</v>
+      </c>
+      <c r="I70">
+        <v>145</v>
+      </c>
+      <c r="J70">
+        <v>116</v>
+      </c>
+      <c r="K70">
+        <v>108</v>
+      </c>
+      <c r="L70">
+        <v>47</v>
+      </c>
+      <c r="M70">
+        <v>276</v>
+      </c>
+      <c r="N70">
+        <v>316</v>
+      </c>
+      <c r="O70">
+        <v>248</v>
+      </c>
+      <c r="P70">
+        <v>205</v>
+      </c>
+      <c r="Q70">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71">
+        <v>143</v>
+      </c>
+      <c r="C71">
+        <v>137</v>
+      </c>
+      <c r="D71">
+        <v>126</v>
+      </c>
+      <c r="E71">
+        <v>115</v>
+      </c>
+      <c r="F71">
+        <v>64</v>
+      </c>
+      <c r="H71">
+        <v>236</v>
+      </c>
+      <c r="I71">
+        <v>232</v>
+      </c>
+      <c r="J71">
+        <v>186</v>
+      </c>
+      <c r="K71">
+        <v>171</v>
+      </c>
+      <c r="L71">
+        <v>76</v>
+      </c>
+      <c r="M71">
+        <v>763</v>
+      </c>
+      <c r="N71">
+        <v>808</v>
+      </c>
+      <c r="O71">
+        <v>587</v>
+      </c>
+      <c r="P71">
+        <v>492</v>
+      </c>
+      <c r="Q71">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72">
+        <v>420</v>
+      </c>
+      <c r="C72">
+        <v>366</v>
+      </c>
+      <c r="D72">
+        <v>309</v>
+      </c>
+      <c r="E72">
+        <v>249</v>
+      </c>
+      <c r="F72">
+        <v>127</v>
+      </c>
+      <c r="H72">
+        <v>1001</v>
+      </c>
+      <c r="I72">
+        <v>1001</v>
+      </c>
+      <c r="J72">
+        <v>1001</v>
+      </c>
+      <c r="K72">
+        <v>830</v>
+      </c>
+      <c r="L72">
+        <v>246</v>
+      </c>
+      <c r="M72">
+        <v>174</v>
+      </c>
+      <c r="N72">
+        <v>1001</v>
+      </c>
+      <c r="O72">
+        <v>1001</v>
+      </c>
+      <c r="P72">
+        <v>1001</v>
+      </c>
+      <c r="Q72">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="1" customFormat="1">
+      <c r="A73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="1">
+        <v>273</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D73" s="1">
+        <v>239</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F73" s="1">
+        <v>186</v>
+      </c>
+      <c r="H73" s="1">
+        <v>223</v>
+      </c>
+      <c r="I73" s="1">
+        <v>781</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1001</v>
+      </c>
+      <c r="L73" s="1">
+        <v>133</v>
+      </c>
+      <c r="M73" s="1">
+        <v>175</v>
+      </c>
+      <c r="N73" s="1">
+        <v>297</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P73" s="1">
+        <v>1001</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74">
+        <v>41</v>
+      </c>
+      <c r="C74">
+        <v>39</v>
+      </c>
+      <c r="D74">
+        <v>28</v>
+      </c>
+      <c r="E74">
+        <v>22</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="H74">
+        <v>53</v>
+      </c>
+      <c r="I74">
+        <v>44</v>
+      </c>
+      <c r="J74">
+        <v>40</v>
+      </c>
+      <c r="K74">
+        <v>38</v>
+      </c>
+      <c r="L74">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <v>86</v>
+      </c>
+      <c r="N74">
+        <v>89</v>
+      </c>
+      <c r="O74">
+        <v>62</v>
+      </c>
+      <c r="P74">
+        <v>64</v>
+      </c>
+      <c r="Q74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75">
+        <v>49</v>
+      </c>
+      <c r="C75">
+        <v>40</v>
+      </c>
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>34</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="H75">
+        <v>57</v>
+      </c>
+      <c r="I75">
+        <v>64</v>
+      </c>
+      <c r="J75">
+        <v>54</v>
+      </c>
+      <c r="K75">
+        <v>45</v>
+      </c>
+      <c r="L75">
+        <v>11</v>
+      </c>
+      <c r="M75">
+        <v>100</v>
+      </c>
+      <c r="N75">
+        <v>115</v>
+      </c>
+      <c r="O75">
+        <v>76</v>
+      </c>
+      <c r="P75">
+        <v>72</v>
+      </c>
+      <c r="Q75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76">
+        <v>47</v>
+      </c>
+      <c r="C76">
+        <v>37</v>
+      </c>
+      <c r="D76">
+        <v>45</v>
+      </c>
+      <c r="E76">
+        <v>38</v>
+      </c>
+      <c r="F76">
+        <v>12</v>
+      </c>
+      <c r="H76">
+        <v>72</v>
+      </c>
+      <c r="I76">
+        <v>67</v>
+      </c>
+      <c r="J76">
+        <v>43</v>
+      </c>
+      <c r="K76">
+        <v>52</v>
+      </c>
+      <c r="L76">
+        <v>15</v>
+      </c>
+      <c r="M76">
+        <v>114</v>
+      </c>
+      <c r="N76">
+        <v>125</v>
+      </c>
+      <c r="O76">
+        <v>97</v>
+      </c>
+      <c r="P76">
+        <v>75</v>
+      </c>
+      <c r="Q76">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77">
+        <v>59</v>
+      </c>
+      <c r="C77">
+        <v>62</v>
+      </c>
+      <c r="D77">
+        <v>47</v>
+      </c>
+      <c r="E77">
+        <v>50</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="H77">
+        <v>85</v>
+      </c>
+      <c r="I77">
+        <v>82</v>
+      </c>
+      <c r="J77">
+        <v>76</v>
+      </c>
+      <c r="K77">
+        <v>67</v>
+      </c>
+      <c r="L77">
+        <v>21</v>
+      </c>
+      <c r="M77">
+        <v>144</v>
+      </c>
+      <c r="N77">
+        <v>152</v>
+      </c>
+      <c r="O77">
+        <v>96</v>
+      </c>
+      <c r="P77">
+        <v>105</v>
+      </c>
+      <c r="Q77">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78">
+        <v>83</v>
+      </c>
+      <c r="C78">
+        <v>70</v>
+      </c>
+      <c r="D78">
+        <v>64</v>
+      </c>
+      <c r="E78">
+        <v>59</v>
+      </c>
+      <c r="F78">
+        <v>21</v>
+      </c>
+      <c r="H78">
+        <v>109</v>
+      </c>
+      <c r="I78">
+        <v>105</v>
+      </c>
+      <c r="J78">
+        <v>89</v>
+      </c>
+      <c r="K78">
+        <v>84</v>
+      </c>
+      <c r="L78">
+        <v>28</v>
+      </c>
+      <c r="M78">
+        <v>192</v>
+      </c>
+      <c r="N78">
+        <v>197</v>
+      </c>
+      <c r="O78">
+        <v>167</v>
+      </c>
+      <c r="P78">
+        <v>142</v>
+      </c>
+      <c r="Q78">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79">
+        <v>85</v>
+      </c>
+      <c r="D79">
+        <v>84</v>
+      </c>
+      <c r="E79">
+        <v>72</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="H79">
+        <v>126</v>
+      </c>
+      <c r="I79">
+        <v>143</v>
+      </c>
+      <c r="J79">
+        <v>126</v>
+      </c>
+      <c r="K79">
+        <v>110</v>
+      </c>
+      <c r="L79">
+        <v>44</v>
+      </c>
+      <c r="M79">
+        <v>312</v>
+      </c>
+      <c r="N79">
+        <v>320</v>
+      </c>
+      <c r="O79">
+        <v>231</v>
+      </c>
+      <c r="P79">
+        <v>257</v>
+      </c>
+      <c r="Q79">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80">
+        <v>157</v>
+      </c>
+      <c r="C80">
+        <v>144</v>
+      </c>
+      <c r="D80">
+        <v>113</v>
+      </c>
+      <c r="E80">
+        <v>113</v>
+      </c>
+      <c r="F80">
+        <v>56</v>
+      </c>
+      <c r="H80">
+        <v>242</v>
+      </c>
+      <c r="I80">
+        <v>245</v>
+      </c>
+      <c r="J80">
+        <v>213</v>
+      </c>
+      <c r="K80">
+        <v>183</v>
+      </c>
+      <c r="L80">
+        <v>72</v>
+      </c>
+      <c r="M80">
+        <v>821</v>
+      </c>
+      <c r="N80">
+        <v>869</v>
+      </c>
+      <c r="O80">
+        <v>607</v>
+      </c>
+      <c r="P80">
+        <v>578</v>
+      </c>
+      <c r="Q80">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81">
+        <v>75</v>
+      </c>
+      <c r="C81">
+        <v>375</v>
+      </c>
+      <c r="D81">
+        <v>318</v>
+      </c>
+      <c r="E81">
+        <v>243</v>
+      </c>
+      <c r="F81">
+        <v>118</v>
+      </c>
+      <c r="H81">
+        <v>1001</v>
+      </c>
+      <c r="I81">
+        <v>1001</v>
+      </c>
+      <c r="J81">
+        <v>1001</v>
+      </c>
+      <c r="K81">
+        <v>901</v>
+      </c>
+      <c r="L81">
+        <v>294</v>
+      </c>
+      <c r="M81">
+        <v>159</v>
+      </c>
+      <c r="N81">
+        <v>226</v>
+      </c>
+      <c r="O81">
+        <v>1001</v>
+      </c>
+      <c r="P81">
+        <v>1001</v>
+      </c>
+      <c r="Q81">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="1" customFormat="1">
+      <c r="A82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="1">
+        <v>242</v>
+      </c>
+      <c r="C82" s="1">
+        <v>429</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F82" s="1">
+        <v>149</v>
+      </c>
+      <c r="H82" s="1">
+        <v>126</v>
+      </c>
+      <c r="I82" s="1">
+        <v>967</v>
+      </c>
+      <c r="J82" s="1">
+        <v>553</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1001</v>
+      </c>
+      <c r="L82" s="1">
+        <v>127</v>
+      </c>
+      <c r="M82" s="1">
+        <v>58</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1001</v>
+      </c>
+      <c r="O82" s="1">
+        <v>680</v>
+      </c>
+      <c r="P82" s="1">
+        <v>1001</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9553,4127 +13779,6 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>69</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>26</v>
-      </c>
-      <c r="J2">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <v>101</v>
-      </c>
-      <c r="M2">
-        <v>52</v>
-      </c>
-      <c r="N2">
-        <v>39</v>
-      </c>
-      <c r="O2">
-        <v>32</v>
-      </c>
-      <c r="P2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>62</v>
-      </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>75</v>
-      </c>
-      <c r="H3">
-        <v>53</v>
-      </c>
-      <c r="I3">
-        <v>40</v>
-      </c>
-      <c r="J3">
-        <v>25</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>116</v>
-      </c>
-      <c r="M3">
-        <v>87</v>
-      </c>
-      <c r="N3">
-        <v>70</v>
-      </c>
-      <c r="O3">
-        <v>48</v>
-      </c>
-      <c r="P3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>78</v>
-      </c>
-      <c r="C4">
-        <v>57</v>
-      </c>
-      <c r="D4">
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <v>33</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>105</v>
-      </c>
-      <c r="H4">
-        <v>73</v>
-      </c>
-      <c r="I4">
-        <v>61</v>
-      </c>
-      <c r="J4">
-        <v>33</v>
-      </c>
-      <c r="K4">
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <v>182</v>
-      </c>
-      <c r="M4">
-        <v>117</v>
-      </c>
-      <c r="N4">
-        <v>93</v>
-      </c>
-      <c r="O4">
-        <v>76</v>
-      </c>
-      <c r="P4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>117</v>
-      </c>
-      <c r="C5">
-        <v>89</v>
-      </c>
-      <c r="D5">
-        <v>66</v>
-      </c>
-      <c r="E5">
-        <v>43</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>154</v>
-      </c>
-      <c r="H5">
-        <v>116</v>
-      </c>
-      <c r="I5">
-        <v>88</v>
-      </c>
-      <c r="J5">
-        <v>45</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>228</v>
-      </c>
-      <c r="M5">
-        <v>157</v>
-      </c>
-      <c r="N5">
-        <v>148</v>
-      </c>
-      <c r="O5">
-        <v>109</v>
-      </c>
-      <c r="P5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>164</v>
-      </c>
-      <c r="C6">
-        <v>143</v>
-      </c>
-      <c r="D6">
-        <v>99</v>
-      </c>
-      <c r="E6">
-        <v>58</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>208</v>
-      </c>
-      <c r="H6">
-        <v>163</v>
-      </c>
-      <c r="I6">
-        <v>121</v>
-      </c>
-      <c r="J6">
-        <v>54</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
-        <v>331</v>
-      </c>
-      <c r="M6">
-        <v>256</v>
-      </c>
-      <c r="N6">
-        <v>217</v>
-      </c>
-      <c r="O6">
-        <v>153</v>
-      </c>
-      <c r="P6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>233</v>
-      </c>
-      <c r="C7">
-        <v>214</v>
-      </c>
-      <c r="D7">
-        <v>138</v>
-      </c>
-      <c r="E7">
-        <v>61</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>306</v>
-      </c>
-      <c r="H7">
-        <v>244</v>
-      </c>
-      <c r="I7">
-        <v>191</v>
-      </c>
-      <c r="J7">
-        <v>69</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>519</v>
-      </c>
-      <c r="M7">
-        <v>396</v>
-      </c>
-      <c r="N7">
-        <v>315</v>
-      </c>
-      <c r="O7">
-        <v>170</v>
-      </c>
-      <c r="P7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>395</v>
-      </c>
-      <c r="C8">
-        <v>345</v>
-      </c>
-      <c r="D8">
-        <v>163</v>
-      </c>
-      <c r="E8">
-        <v>72</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>510</v>
-      </c>
-      <c r="H8">
-        <v>411</v>
-      </c>
-      <c r="I8">
-        <v>308</v>
-      </c>
-      <c r="J8">
-        <v>80</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>210</v>
-      </c>
-      <c r="M8">
-        <v>690</v>
-      </c>
-      <c r="N8">
-        <v>512</v>
-      </c>
-      <c r="O8">
-        <v>229</v>
-      </c>
-      <c r="P8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>861</v>
-      </c>
-      <c r="C9">
-        <v>748</v>
-      </c>
-      <c r="D9">
-        <v>171</v>
-      </c>
-      <c r="E9">
-        <v>72</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>655</v>
-      </c>
-      <c r="H9">
-        <v>946</v>
-      </c>
-      <c r="I9">
-        <v>326</v>
-      </c>
-      <c r="J9">
-        <v>87</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>286</v>
-      </c>
-      <c r="M9">
-        <v>1001</v>
-      </c>
-      <c r="N9">
-        <v>890</v>
-      </c>
-      <c r="O9">
-        <v>246</v>
-      </c>
-      <c r="P9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>256</v>
-      </c>
-      <c r="C10">
-        <v>697</v>
-      </c>
-      <c r="D10">
-        <v>139</v>
-      </c>
-      <c r="E10">
-        <v>74</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>1001</v>
-      </c>
-      <c r="H10">
-        <v>1001</v>
-      </c>
-      <c r="I10">
-        <v>256</v>
-      </c>
-      <c r="J10">
-        <v>76</v>
-      </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-      <c r="L10">
-        <v>125</v>
-      </c>
-      <c r="M10">
-        <v>1001</v>
-      </c>
-      <c r="N10">
-        <v>706</v>
-      </c>
-      <c r="O10">
-        <v>239</v>
-      </c>
-      <c r="P10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>25</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>58</v>
-      </c>
-      <c r="H11">
-        <v>37</v>
-      </c>
-      <c r="I11">
-        <v>29</v>
-      </c>
-      <c r="J11">
-        <v>23</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <v>101</v>
-      </c>
-      <c r="M11">
-        <v>66</v>
-      </c>
-      <c r="N11">
-        <v>46</v>
-      </c>
-      <c r="O11">
-        <v>48</v>
-      </c>
-      <c r="P11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>52</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>33</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>73</v>
-      </c>
-      <c r="H12">
-        <v>50</v>
-      </c>
-      <c r="I12">
-        <v>42</v>
-      </c>
-      <c r="J12">
-        <v>38</v>
-      </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>124</v>
-      </c>
-      <c r="M12">
-        <v>85</v>
-      </c>
-      <c r="N12">
-        <v>77</v>
-      </c>
-      <c r="O12">
-        <v>63</v>
-      </c>
-      <c r="P12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>70</v>
-      </c>
-      <c r="C13">
-        <v>56</v>
-      </c>
-      <c r="D13">
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <v>49</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>108</v>
-      </c>
-      <c r="H13">
-        <v>72</v>
-      </c>
-      <c r="I13">
-        <v>67</v>
-      </c>
-      <c r="J13">
-        <v>55</v>
-      </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>145</v>
-      </c>
-      <c r="M13">
-        <v>128</v>
-      </c>
-      <c r="N13">
-        <v>104</v>
-      </c>
-      <c r="O13">
-        <v>89</v>
-      </c>
-      <c r="P13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>84</v>
-      </c>
-      <c r="C14">
-        <v>83</v>
-      </c>
-      <c r="D14">
-        <v>66</v>
-      </c>
-      <c r="E14">
-        <v>55</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>99</v>
-      </c>
-      <c r="I14">
-        <v>77</v>
-      </c>
-      <c r="J14">
-        <v>70</v>
-      </c>
-      <c r="K14">
-        <v>7</v>
-      </c>
-      <c r="L14">
-        <v>168</v>
-      </c>
-      <c r="M14">
-        <v>147</v>
-      </c>
-      <c r="N14">
-        <v>130</v>
-      </c>
-      <c r="O14">
-        <v>111</v>
-      </c>
-      <c r="P14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>118</v>
-      </c>
-      <c r="C15">
-        <v>107</v>
-      </c>
-      <c r="D15">
-        <v>83</v>
-      </c>
-      <c r="E15">
-        <v>83</v>
-      </c>
-      <c r="F15">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>168</v>
-      </c>
-      <c r="H15">
-        <v>136</v>
-      </c>
-      <c r="I15">
-        <v>113</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15">
-        <v>8</v>
-      </c>
-      <c r="L15">
-        <v>266</v>
-      </c>
-      <c r="M15">
-        <v>205</v>
-      </c>
-      <c r="N15">
-        <v>169</v>
-      </c>
-      <c r="O15">
-        <v>180</v>
-      </c>
-      <c r="P15">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>189</v>
-      </c>
-      <c r="C16">
-        <v>159</v>
-      </c>
-      <c r="D16">
-        <v>135</v>
-      </c>
-      <c r="E16">
-        <v>117</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>240</v>
-      </c>
-      <c r="H16">
-        <v>206</v>
-      </c>
-      <c r="I16">
-        <v>174</v>
-      </c>
-      <c r="J16">
-        <v>140</v>
-      </c>
-      <c r="K16">
-        <v>15</v>
-      </c>
-      <c r="L16">
-        <v>394</v>
-      </c>
-      <c r="M16">
-        <v>346</v>
-      </c>
-      <c r="N16">
-        <v>290</v>
-      </c>
-      <c r="O16">
-        <v>266</v>
-      </c>
-      <c r="P16">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>293</v>
-      </c>
-      <c r="C17">
-        <v>270</v>
-      </c>
-      <c r="D17">
-        <v>217</v>
-      </c>
-      <c r="E17">
-        <v>182</v>
-      </c>
-      <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>395</v>
-      </c>
-      <c r="H17">
-        <v>349</v>
-      </c>
-      <c r="I17">
-        <v>292</v>
-      </c>
-      <c r="J17">
-        <v>236</v>
-      </c>
-      <c r="K17">
-        <v>18</v>
-      </c>
-      <c r="L17">
-        <v>902</v>
-      </c>
-      <c r="M17">
-        <v>671</v>
-      </c>
-      <c r="N17">
-        <v>515</v>
-      </c>
-      <c r="O17">
-        <v>417</v>
-      </c>
-      <c r="P17">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>619</v>
-      </c>
-      <c r="C18">
-        <v>529</v>
-      </c>
-      <c r="D18">
-        <v>464</v>
-      </c>
-      <c r="E18">
-        <v>323</v>
-      </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>95</v>
-      </c>
-      <c r="H18">
-        <v>1001</v>
-      </c>
-      <c r="I18">
-        <v>668</v>
-      </c>
-      <c r="J18">
-        <v>451</v>
-      </c>
-      <c r="K18">
-        <v>29</v>
-      </c>
-      <c r="L18">
-        <v>180</v>
-      </c>
-      <c r="M18">
-        <v>497</v>
-      </c>
-      <c r="N18">
-        <v>1001</v>
-      </c>
-      <c r="O18">
-        <v>1001</v>
-      </c>
-      <c r="P18">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>764</v>
-      </c>
-      <c r="C19">
-        <v>1001</v>
-      </c>
-      <c r="D19">
-        <v>920</v>
-      </c>
-      <c r="E19">
-        <v>330</v>
-      </c>
-      <c r="F19">
-        <v>17</v>
-      </c>
-      <c r="G19">
-        <v>586</v>
-      </c>
-      <c r="H19">
-        <v>488</v>
-      </c>
-      <c r="I19">
-        <v>543</v>
-      </c>
-      <c r="J19">
-        <v>476</v>
-      </c>
-      <c r="K19">
-        <v>25</v>
-      </c>
-      <c r="L19">
-        <v>564</v>
-      </c>
-      <c r="M19">
-        <v>1001</v>
-      </c>
-      <c r="N19">
-        <v>774</v>
-      </c>
-      <c r="O19">
-        <v>1001</v>
-      </c>
-      <c r="P19">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>35</v>
-      </c>
-      <c r="C20">
-        <v>34</v>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>24</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>51</v>
-      </c>
-      <c r="H20">
-        <v>42</v>
-      </c>
-      <c r="I20">
-        <v>34</v>
-      </c>
-      <c r="J20">
-        <v>27</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>99</v>
-      </c>
-      <c r="M20">
-        <v>71</v>
-      </c>
-      <c r="N20">
-        <v>48</v>
-      </c>
-      <c r="O20">
-        <v>50</v>
-      </c>
-      <c r="P20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
-        <v>54</v>
-      </c>
-      <c r="C21">
-        <v>59</v>
-      </c>
-      <c r="D21">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>33</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>77</v>
-      </c>
-      <c r="H21">
-        <v>60</v>
-      </c>
-      <c r="I21">
-        <v>40</v>
-      </c>
-      <c r="J21">
-        <v>39</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="L21">
-        <v>122</v>
-      </c>
-      <c r="M21">
-        <v>99</v>
-      </c>
-      <c r="N21">
-        <v>78</v>
-      </c>
-      <c r="O21">
-        <v>64</v>
-      </c>
-      <c r="P21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>73</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>45</v>
-      </c>
-      <c r="E22">
-        <v>44</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-      <c r="G22">
-        <v>86</v>
-      </c>
-      <c r="H22">
-        <v>66</v>
-      </c>
-      <c r="I22">
-        <v>58</v>
-      </c>
-      <c r="J22">
-        <v>51</v>
-      </c>
-      <c r="K22">
-        <v>7</v>
-      </c>
-      <c r="L22">
-        <v>141</v>
-      </c>
-      <c r="M22">
-        <v>118</v>
-      </c>
-      <c r="N22">
-        <v>82</v>
-      </c>
-      <c r="O22">
-        <v>71</v>
-      </c>
-      <c r="P22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>86</v>
-      </c>
-      <c r="C23">
-        <v>79</v>
-      </c>
-      <c r="D23">
-        <v>69</v>
-      </c>
-      <c r="E23">
-        <v>58</v>
-      </c>
-      <c r="F23">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>112</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23">
-        <v>78</v>
-      </c>
-      <c r="J23">
-        <v>69</v>
-      </c>
-      <c r="K23">
-        <v>9</v>
-      </c>
-      <c r="L23">
-        <v>194</v>
-      </c>
-      <c r="M23">
-        <v>161</v>
-      </c>
-      <c r="N23">
-        <v>120</v>
-      </c>
-      <c r="O23">
-        <v>114</v>
-      </c>
-      <c r="P23">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>106</v>
-      </c>
-      <c r="C24">
-        <v>97</v>
-      </c>
-      <c r="D24">
-        <v>85</v>
-      </c>
-      <c r="E24">
-        <v>73</v>
-      </c>
-      <c r="F24">
-        <v>14</v>
-      </c>
-      <c r="G24">
-        <v>141</v>
-      </c>
-      <c r="H24">
-        <v>124</v>
-      </c>
-      <c r="I24">
-        <v>102</v>
-      </c>
-      <c r="J24">
-        <v>89</v>
-      </c>
-      <c r="K24">
-        <v>18</v>
-      </c>
-      <c r="L24">
-        <v>232</v>
-      </c>
-      <c r="M24">
-        <v>217</v>
-      </c>
-      <c r="N24">
-        <v>163</v>
-      </c>
-      <c r="O24">
-        <v>144</v>
-      </c>
-      <c r="P24">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25">
-        <v>150</v>
-      </c>
-      <c r="C25">
-        <v>149</v>
-      </c>
-      <c r="D25">
-        <v>114</v>
-      </c>
-      <c r="E25">
-        <v>105</v>
-      </c>
-      <c r="F25">
-        <v>16</v>
-      </c>
-      <c r="G25">
-        <v>203</v>
-      </c>
-      <c r="H25">
-        <v>179</v>
-      </c>
-      <c r="I25">
-        <v>151</v>
-      </c>
-      <c r="J25">
-        <v>124</v>
-      </c>
-      <c r="K25">
-        <v>30</v>
-      </c>
-      <c r="L25">
-        <v>366</v>
-      </c>
-      <c r="M25">
-        <v>330</v>
-      </c>
-      <c r="N25">
-        <v>241</v>
-      </c>
-      <c r="O25">
-        <v>249</v>
-      </c>
-      <c r="P25">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26">
-        <v>244</v>
-      </c>
-      <c r="C26">
-        <v>214</v>
-      </c>
-      <c r="D26">
-        <v>185</v>
-      </c>
-      <c r="E26">
-        <v>167</v>
-      </c>
-      <c r="F26">
-        <v>32</v>
-      </c>
-      <c r="G26">
-        <v>319</v>
-      </c>
-      <c r="H26">
-        <v>308</v>
-      </c>
-      <c r="I26">
-        <v>248</v>
-      </c>
-      <c r="J26">
-        <v>209</v>
-      </c>
-      <c r="K26">
-        <v>64</v>
-      </c>
-      <c r="L26">
-        <v>876</v>
-      </c>
-      <c r="M26">
-        <v>726</v>
-      </c>
-      <c r="N26">
-        <v>508</v>
-      </c>
-      <c r="O26">
-        <v>429</v>
-      </c>
-      <c r="P26">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27">
-        <v>525</v>
-      </c>
-      <c r="C27">
-        <v>470</v>
-      </c>
-      <c r="D27">
-        <v>380</v>
-      </c>
-      <c r="E27">
-        <v>338</v>
-      </c>
-      <c r="F27">
-        <v>46</v>
-      </c>
-      <c r="G27">
-        <v>1001</v>
-      </c>
-      <c r="H27">
-        <v>1001</v>
-      </c>
-      <c r="I27">
-        <v>753</v>
-      </c>
-      <c r="J27">
-        <v>462</v>
-      </c>
-      <c r="K27">
-        <v>148</v>
-      </c>
-      <c r="L27">
-        <v>371</v>
-      </c>
-      <c r="M27">
-        <v>564</v>
-      </c>
-      <c r="N27">
-        <v>968</v>
-      </c>
-      <c r="O27">
-        <v>1001</v>
-      </c>
-      <c r="P27">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28">
-        <v>602</v>
-      </c>
-      <c r="C28">
-        <v>616</v>
-      </c>
-      <c r="D28">
-        <v>1001</v>
-      </c>
-      <c r="E28">
-        <v>641</v>
-      </c>
-      <c r="F28">
-        <v>69</v>
-      </c>
-      <c r="G28">
-        <v>504</v>
-      </c>
-      <c r="H28">
-        <v>1001</v>
-      </c>
-      <c r="I28">
-        <v>1001</v>
-      </c>
-      <c r="J28">
-        <v>856</v>
-      </c>
-      <c r="K28">
-        <v>195</v>
-      </c>
-      <c r="L28">
-        <v>367</v>
-      </c>
-      <c r="M28">
-        <v>620</v>
-      </c>
-      <c r="N28">
-        <v>1001</v>
-      </c>
-      <c r="O28">
-        <v>1001</v>
-      </c>
-      <c r="P28">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>35</v>
-      </c>
-      <c r="D29">
-        <v>27</v>
-      </c>
-      <c r="E29">
-        <v>29</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <v>53</v>
-      </c>
-      <c r="H29">
-        <v>46</v>
-      </c>
-      <c r="I29">
-        <v>42</v>
-      </c>
-      <c r="J29">
-        <v>24</v>
-      </c>
-      <c r="K29">
-        <v>6</v>
-      </c>
-      <c r="L29">
-        <v>82</v>
-      </c>
-      <c r="M29">
-        <v>91</v>
-      </c>
-      <c r="N29">
-        <v>58</v>
-      </c>
-      <c r="O29">
-        <v>48</v>
-      </c>
-      <c r="P29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30">
-        <v>45</v>
-      </c>
-      <c r="C30">
-        <v>44</v>
-      </c>
-      <c r="D30">
-        <v>39</v>
-      </c>
-      <c r="E30">
-        <v>33</v>
-      </c>
-      <c r="F30">
-        <v>7</v>
-      </c>
-      <c r="G30">
-        <v>64</v>
-      </c>
-      <c r="H30">
-        <v>67</v>
-      </c>
-      <c r="I30">
-        <v>50</v>
-      </c>
-      <c r="J30">
-        <v>37</v>
-      </c>
-      <c r="K30">
-        <v>7</v>
-      </c>
-      <c r="L30">
-        <v>110</v>
-      </c>
-      <c r="M30">
-        <v>93</v>
-      </c>
-      <c r="N30">
-        <v>66</v>
-      </c>
-      <c r="O30">
-        <v>62</v>
-      </c>
-      <c r="P30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31">
-        <v>58</v>
-      </c>
-      <c r="C31">
-        <v>48</v>
-      </c>
-      <c r="D31">
-        <v>44</v>
-      </c>
-      <c r="E31">
-        <v>42</v>
-      </c>
-      <c r="F31">
-        <v>13</v>
-      </c>
-      <c r="G31">
-        <v>85</v>
-      </c>
-      <c r="H31">
-        <v>74</v>
-      </c>
-      <c r="I31">
-        <v>61</v>
-      </c>
-      <c r="J31">
-        <v>61</v>
-      </c>
-      <c r="K31">
-        <v>12</v>
-      </c>
-      <c r="L31">
-        <v>137</v>
-      </c>
-      <c r="M31">
-        <v>108</v>
-      </c>
-      <c r="N31">
-        <v>87</v>
-      </c>
-      <c r="O31">
-        <v>88</v>
-      </c>
-      <c r="P31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32">
-        <v>66</v>
-      </c>
-      <c r="C32">
-        <v>66</v>
-      </c>
-      <c r="D32">
-        <v>51</v>
-      </c>
-      <c r="E32">
-        <v>55</v>
-      </c>
-      <c r="F32">
-        <v>17</v>
-      </c>
-      <c r="G32">
-        <v>93</v>
-      </c>
-      <c r="H32">
-        <v>95</v>
-      </c>
-      <c r="I32">
-        <v>74</v>
-      </c>
-      <c r="J32">
-        <v>67</v>
-      </c>
-      <c r="K32">
-        <v>21</v>
-      </c>
-      <c r="L32">
-        <v>168</v>
-      </c>
-      <c r="M32">
-        <v>164</v>
-      </c>
-      <c r="N32">
-        <v>106</v>
-      </c>
-      <c r="O32">
-        <v>108</v>
-      </c>
-      <c r="P32">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33">
-        <v>104</v>
-      </c>
-      <c r="C33">
-        <v>83</v>
-      </c>
-      <c r="D33">
-        <v>72</v>
-      </c>
-      <c r="E33">
-        <v>68</v>
-      </c>
-      <c r="F33">
-        <v>30</v>
-      </c>
-      <c r="G33">
-        <v>139</v>
-      </c>
-      <c r="H33">
-        <v>116</v>
-      </c>
-      <c r="I33">
-        <v>100</v>
-      </c>
-      <c r="J33">
-        <v>83</v>
-      </c>
-      <c r="K33">
-        <v>36</v>
-      </c>
-      <c r="L33">
-        <v>233</v>
-      </c>
-      <c r="M33">
-        <v>197</v>
-      </c>
-      <c r="N33">
-        <v>150</v>
-      </c>
-      <c r="O33">
-        <v>144</v>
-      </c>
-      <c r="P33">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34">
-        <v>129</v>
-      </c>
-      <c r="C34">
-        <v>123</v>
-      </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-      <c r="E34">
-        <v>92</v>
-      </c>
-      <c r="F34">
-        <v>47</v>
-      </c>
-      <c r="G34">
-        <v>193</v>
-      </c>
-      <c r="H34">
-        <v>162</v>
-      </c>
-      <c r="I34">
-        <v>138</v>
-      </c>
-      <c r="J34">
-        <v>105</v>
-      </c>
-      <c r="K34">
-        <v>54</v>
-      </c>
-      <c r="L34">
-        <v>338</v>
-      </c>
-      <c r="M34">
-        <v>323</v>
-      </c>
-      <c r="N34">
-        <v>232</v>
-      </c>
-      <c r="O34">
-        <v>211</v>
-      </c>
-      <c r="P34">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35">
-        <v>198</v>
-      </c>
-      <c r="C35">
-        <v>191</v>
-      </c>
-      <c r="D35">
-        <v>157</v>
-      </c>
-      <c r="E35">
-        <v>140</v>
-      </c>
-      <c r="F35">
-        <v>81</v>
-      </c>
-      <c r="G35">
-        <v>268</v>
-      </c>
-      <c r="H35">
-        <v>277</v>
-      </c>
-      <c r="I35">
-        <v>209</v>
-      </c>
-      <c r="J35">
-        <v>175</v>
-      </c>
-      <c r="K35">
-        <v>102</v>
-      </c>
-      <c r="L35">
-        <v>892</v>
-      </c>
-      <c r="M35">
-        <v>715</v>
-      </c>
-      <c r="N35">
-        <v>496</v>
-      </c>
-      <c r="O35">
-        <v>444</v>
-      </c>
-      <c r="P35">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <v>447</v>
-      </c>
-      <c r="C36">
-        <v>434</v>
-      </c>
-      <c r="D36">
-        <v>329</v>
-      </c>
-      <c r="E36">
-        <v>313</v>
-      </c>
-      <c r="F36">
-        <v>165</v>
-      </c>
-      <c r="G36">
-        <v>1001</v>
-      </c>
-      <c r="H36">
-        <v>1001</v>
-      </c>
-      <c r="I36">
-        <v>894</v>
-      </c>
-      <c r="J36">
-        <v>514</v>
-      </c>
-      <c r="K36">
-        <v>244</v>
-      </c>
-      <c r="L36">
-        <v>314</v>
-      </c>
-      <c r="M36">
-        <v>860</v>
-      </c>
-      <c r="N36">
-        <v>1001</v>
-      </c>
-      <c r="O36">
-        <v>1001</v>
-      </c>
-      <c r="P36">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37">
-        <v>61</v>
-      </c>
-      <c r="C37">
-        <v>552</v>
-      </c>
-      <c r="D37">
-        <v>792</v>
-      </c>
-      <c r="E37">
-        <v>879</v>
-      </c>
-      <c r="F37">
-        <v>253</v>
-      </c>
-      <c r="G37">
-        <v>369</v>
-      </c>
-      <c r="H37">
-        <v>842</v>
-      </c>
-      <c r="I37">
-        <v>295</v>
-      </c>
-      <c r="J37">
-        <v>1001</v>
-      </c>
-      <c r="K37">
-        <v>285</v>
-      </c>
-      <c r="L37">
-        <v>261</v>
-      </c>
-      <c r="M37">
-        <v>974</v>
-      </c>
-      <c r="N37">
-        <v>324</v>
-      </c>
-      <c r="O37">
-        <v>1001</v>
-      </c>
-      <c r="P37">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>43</v>
-      </c>
-      <c r="D38">
-        <v>26</v>
-      </c>
-      <c r="E38">
-        <v>29</v>
-      </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38">
-        <v>52</v>
-      </c>
-      <c r="H38">
-        <v>50</v>
-      </c>
-      <c r="I38">
-        <v>42</v>
-      </c>
-      <c r="J38">
-        <v>30</v>
-      </c>
-      <c r="K38">
-        <v>6</v>
-      </c>
-      <c r="L38">
-        <v>112</v>
-      </c>
-      <c r="M38">
-        <v>75</v>
-      </c>
-      <c r="N38">
-        <v>58</v>
-      </c>
-      <c r="O38">
-        <v>52</v>
-      </c>
-      <c r="P38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39">
-        <v>48</v>
-      </c>
-      <c r="C39">
-        <v>44</v>
-      </c>
-      <c r="D39">
-        <v>28</v>
-      </c>
-      <c r="E39">
-        <v>34</v>
-      </c>
-      <c r="F39">
-        <v>9</v>
-      </c>
-      <c r="G39">
-        <v>55</v>
-      </c>
-      <c r="H39">
-        <v>47</v>
-      </c>
-      <c r="I39">
-        <v>44</v>
-      </c>
-      <c r="J39">
-        <v>42</v>
-      </c>
-      <c r="K39">
-        <v>7</v>
-      </c>
-      <c r="L39">
-        <v>126</v>
-      </c>
-      <c r="M39">
-        <v>97</v>
-      </c>
-      <c r="N39">
-        <v>77</v>
-      </c>
-      <c r="O39">
-        <v>66</v>
-      </c>
-      <c r="P39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40">
-        <v>55</v>
-      </c>
-      <c r="C40">
-        <v>51</v>
-      </c>
-      <c r="D40">
-        <v>36</v>
-      </c>
-      <c r="E40">
-        <v>40</v>
-      </c>
-      <c r="F40">
-        <v>14</v>
-      </c>
-      <c r="G40">
-        <v>57</v>
-      </c>
-      <c r="H40">
-        <v>69</v>
-      </c>
-      <c r="I40">
-        <v>56</v>
-      </c>
-      <c r="J40">
-        <v>50</v>
-      </c>
-      <c r="K40">
-        <v>15</v>
-      </c>
-      <c r="L40">
-        <v>150</v>
-      </c>
-      <c r="M40">
-        <v>116</v>
-      </c>
-      <c r="N40">
-        <v>86</v>
-      </c>
-      <c r="O40">
-        <v>76</v>
-      </c>
-      <c r="P40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41">
-        <v>67</v>
-      </c>
-      <c r="C41">
-        <v>61</v>
-      </c>
-      <c r="D41">
-        <v>59</v>
-      </c>
-      <c r="E41">
-        <v>47</v>
-      </c>
-      <c r="F41">
-        <v>20</v>
-      </c>
-      <c r="G41">
-        <v>95</v>
-      </c>
-      <c r="H41">
-        <v>85</v>
-      </c>
-      <c r="I41">
-        <v>70</v>
-      </c>
-      <c r="J41">
-        <v>53</v>
-      </c>
-      <c r="K41">
-        <v>23</v>
-      </c>
-      <c r="L41">
-        <v>180</v>
-      </c>
-      <c r="M41">
-        <v>162</v>
-      </c>
-      <c r="N41">
-        <v>101</v>
-      </c>
-      <c r="O41">
-        <v>90</v>
-      </c>
-      <c r="P41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42">
-        <v>87</v>
-      </c>
-      <c r="C42">
-        <v>89</v>
-      </c>
-      <c r="D42">
-        <v>66</v>
-      </c>
-      <c r="E42">
-        <v>52</v>
-      </c>
-      <c r="F42">
-        <v>31</v>
-      </c>
-      <c r="G42">
-        <v>121</v>
-      </c>
-      <c r="H42">
-        <v>112</v>
-      </c>
-      <c r="I42">
-        <v>85</v>
-      </c>
-      <c r="J42">
-        <v>80</v>
-      </c>
-      <c r="K42">
-        <v>35</v>
-      </c>
-      <c r="L42">
-        <v>210</v>
-      </c>
-      <c r="M42">
-        <v>195</v>
-      </c>
-      <c r="N42">
-        <v>143</v>
-      </c>
-      <c r="O42">
-        <v>142</v>
-      </c>
-      <c r="P42">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43">
-        <v>126</v>
-      </c>
-      <c r="C43">
-        <v>119</v>
-      </c>
-      <c r="D43">
-        <v>99</v>
-      </c>
-      <c r="E43">
-        <v>84</v>
-      </c>
-      <c r="F43">
-        <v>47</v>
-      </c>
-      <c r="G43">
-        <v>173</v>
-      </c>
-      <c r="H43">
-        <v>160</v>
-      </c>
-      <c r="I43">
-        <v>119</v>
-      </c>
-      <c r="J43">
-        <v>110</v>
-      </c>
-      <c r="K43">
-        <v>58</v>
-      </c>
-      <c r="L43">
-        <v>343</v>
-      </c>
-      <c r="M43">
-        <v>314</v>
-      </c>
-      <c r="N43">
-        <v>234</v>
-      </c>
-      <c r="O43">
-        <v>229</v>
-      </c>
-      <c r="P43">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44">
-        <v>198</v>
-      </c>
-      <c r="C44">
-        <v>178</v>
-      </c>
-      <c r="D44">
-        <v>150</v>
-      </c>
-      <c r="E44">
-        <v>135</v>
-      </c>
-      <c r="F44">
-        <v>78</v>
-      </c>
-      <c r="G44">
-        <v>283</v>
-      </c>
-      <c r="H44">
-        <v>259</v>
-      </c>
-      <c r="I44">
-        <v>208</v>
-      </c>
-      <c r="J44">
-        <v>176</v>
-      </c>
-      <c r="K44">
-        <v>99</v>
-      </c>
-      <c r="L44">
-        <v>904</v>
-      </c>
-      <c r="M44">
-        <v>739</v>
-      </c>
-      <c r="N44">
-        <v>537</v>
-      </c>
-      <c r="O44">
-        <v>486</v>
-      </c>
-      <c r="P44">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45">
-        <v>434</v>
-      </c>
-      <c r="C45">
-        <v>409</v>
-      </c>
-      <c r="D45">
-        <v>300</v>
-      </c>
-      <c r="E45">
-        <v>273</v>
-      </c>
-      <c r="F45">
-        <v>165</v>
-      </c>
-      <c r="G45">
-        <v>1001</v>
-      </c>
-      <c r="H45">
-        <v>1001</v>
-      </c>
-      <c r="I45">
-        <v>1001</v>
-      </c>
-      <c r="J45">
-        <v>634</v>
-      </c>
-      <c r="K45">
-        <v>253</v>
-      </c>
-      <c r="L45">
-        <v>269</v>
-      </c>
-      <c r="M45">
-        <v>453</v>
-      </c>
-      <c r="N45">
-        <v>1001</v>
-      </c>
-      <c r="O45">
-        <v>1001</v>
-      </c>
-      <c r="P45">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="1" customFormat="1">
-      <c r="A46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="1">
-        <v>137</v>
-      </c>
-      <c r="C46" s="1">
-        <v>813</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1001</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1001</v>
-      </c>
-      <c r="F46" s="1">
-        <v>284</v>
-      </c>
-      <c r="G46" s="1">
-        <v>304</v>
-      </c>
-      <c r="H46" s="1">
-        <v>471</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1001</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K46" s="1">
-        <v>214</v>
-      </c>
-      <c r="L46" s="1">
-        <v>184</v>
-      </c>
-      <c r="M46" s="1">
-        <v>1001</v>
-      </c>
-      <c r="N46" s="1">
-        <v>1001</v>
-      </c>
-      <c r="O46" s="1">
-        <v>1001</v>
-      </c>
-      <c r="P46" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47">
-        <v>39</v>
-      </c>
-      <c r="C47">
-        <v>24</v>
-      </c>
-      <c r="D47">
-        <v>34</v>
-      </c>
-      <c r="E47">
-        <v>25</v>
-      </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
-      <c r="G47">
-        <v>51</v>
-      </c>
-      <c r="H47">
-        <v>48</v>
-      </c>
-      <c r="I47">
-        <v>34</v>
-      </c>
-      <c r="J47">
-        <v>30</v>
-      </c>
-      <c r="K47">
-        <v>7</v>
-      </c>
-      <c r="L47">
-        <v>108</v>
-      </c>
-      <c r="M47">
-        <v>92</v>
-      </c>
-      <c r="N47">
-        <v>59</v>
-      </c>
-      <c r="O47">
-        <v>53</v>
-      </c>
-      <c r="P47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48">
-        <v>42</v>
-      </c>
-      <c r="C48">
-        <v>44</v>
-      </c>
-      <c r="D48">
-        <v>38</v>
-      </c>
-      <c r="E48">
-        <v>31</v>
-      </c>
-      <c r="F48">
-        <v>11</v>
-      </c>
-      <c r="G48">
-        <v>58</v>
-      </c>
-      <c r="H48">
-        <v>62</v>
-      </c>
-      <c r="I48">
-        <v>37</v>
-      </c>
-      <c r="J48">
-        <v>29</v>
-      </c>
-      <c r="K48">
-        <v>11</v>
-      </c>
-      <c r="L48">
-        <v>103</v>
-      </c>
-      <c r="M48">
-        <v>100</v>
-      </c>
-      <c r="N48">
-        <v>72</v>
-      </c>
-      <c r="O48">
-        <v>72</v>
-      </c>
-      <c r="P48">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49">
-        <v>49</v>
-      </c>
-      <c r="C49">
-        <v>49</v>
-      </c>
-      <c r="D49">
-        <v>35</v>
-      </c>
-      <c r="E49">
-        <v>33</v>
-      </c>
-      <c r="F49">
-        <v>13</v>
-      </c>
-      <c r="G49">
-        <v>71</v>
-      </c>
-      <c r="H49">
-        <v>76</v>
-      </c>
-      <c r="I49">
-        <v>48</v>
-      </c>
-      <c r="J49">
-        <v>46</v>
-      </c>
-      <c r="K49">
-        <v>15</v>
-      </c>
-      <c r="L49">
-        <v>135</v>
-      </c>
-      <c r="M49">
-        <v>128</v>
-      </c>
-      <c r="N49">
-        <v>100</v>
-      </c>
-      <c r="O49">
-        <v>78</v>
-      </c>
-      <c r="P49">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50">
-        <v>73</v>
-      </c>
-      <c r="C50">
-        <v>66</v>
-      </c>
-      <c r="D50">
-        <v>51</v>
-      </c>
-      <c r="E50">
-        <v>43</v>
-      </c>
-      <c r="F50">
-        <v>24</v>
-      </c>
-      <c r="G50">
-        <v>85</v>
-      </c>
-      <c r="H50">
-        <v>94</v>
-      </c>
-      <c r="I50">
-        <v>69</v>
-      </c>
-      <c r="J50">
-        <v>68</v>
-      </c>
-      <c r="K50">
-        <v>23</v>
-      </c>
-      <c r="L50">
-        <v>162</v>
-      </c>
-      <c r="M50">
-        <v>145</v>
-      </c>
-      <c r="N50">
-        <v>106</v>
-      </c>
-      <c r="O50">
-        <v>96</v>
-      </c>
-      <c r="P50">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51">
-        <v>91</v>
-      </c>
-      <c r="C51">
-        <v>85</v>
-      </c>
-      <c r="D51">
-        <v>59</v>
-      </c>
-      <c r="E51">
-        <v>60</v>
-      </c>
-      <c r="F51">
-        <v>30</v>
-      </c>
-      <c r="G51">
-        <v>119</v>
-      </c>
-      <c r="H51">
-        <v>112</v>
-      </c>
-      <c r="I51">
-        <v>84</v>
-      </c>
-      <c r="J51">
-        <v>78</v>
-      </c>
-      <c r="K51">
-        <v>36</v>
-      </c>
-      <c r="L51">
-        <v>26</v>
-      </c>
-      <c r="M51">
-        <v>188</v>
-      </c>
-      <c r="N51">
-        <v>141</v>
-      </c>
-      <c r="O51">
-        <v>124</v>
-      </c>
-      <c r="P51">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52">
-        <v>123</v>
-      </c>
-      <c r="C52">
-        <v>101</v>
-      </c>
-      <c r="D52">
-        <v>82</v>
-      </c>
-      <c r="E52">
-        <v>77</v>
-      </c>
-      <c r="F52">
-        <v>44</v>
-      </c>
-      <c r="G52">
-        <v>163</v>
-      </c>
-      <c r="H52">
-        <v>153</v>
-      </c>
-      <c r="I52">
-        <v>116</v>
-      </c>
-      <c r="J52">
-        <v>104</v>
-      </c>
-      <c r="K52">
-        <v>54</v>
-      </c>
-      <c r="L52">
-        <v>367</v>
-      </c>
-      <c r="M52">
-        <v>333</v>
-      </c>
-      <c r="N52">
-        <v>246</v>
-      </c>
-      <c r="O52">
-        <v>225</v>
-      </c>
-      <c r="P52">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53">
-        <v>190</v>
-      </c>
-      <c r="C53">
-        <v>171</v>
-      </c>
-      <c r="D53">
-        <v>125</v>
-      </c>
-      <c r="E53">
-        <v>129</v>
-      </c>
-      <c r="F53">
-        <v>70</v>
-      </c>
-      <c r="G53">
-        <v>257</v>
-      </c>
-      <c r="H53">
-        <v>251</v>
-      </c>
-      <c r="I53">
-        <v>210</v>
-      </c>
-      <c r="J53">
-        <v>161</v>
-      </c>
-      <c r="K53">
-        <v>86</v>
-      </c>
-      <c r="L53">
-        <v>783</v>
-      </c>
-      <c r="M53">
-        <v>797</v>
-      </c>
-      <c r="N53">
-        <v>559</v>
-      </c>
-      <c r="O53">
-        <v>485</v>
-      </c>
-      <c r="P53">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54">
-        <v>413</v>
-      </c>
-      <c r="C54">
-        <v>397</v>
-      </c>
-      <c r="D54">
-        <v>293</v>
-      </c>
-      <c r="E54">
-        <v>259</v>
-      </c>
-      <c r="F54">
-        <v>141</v>
-      </c>
-      <c r="G54">
-        <v>1001</v>
-      </c>
-      <c r="H54">
-        <v>1001</v>
-      </c>
-      <c r="I54">
-        <v>972</v>
-      </c>
-      <c r="J54">
-        <v>566</v>
-      </c>
-      <c r="K54">
-        <v>218</v>
-      </c>
-      <c r="L54">
-        <v>208</v>
-      </c>
-      <c r="M54">
-        <v>183</v>
-      </c>
-      <c r="N54">
-        <v>1001</v>
-      </c>
-      <c r="O54">
-        <v>1001</v>
-      </c>
-      <c r="P54">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="1" customFormat="1">
-      <c r="A55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="1">
-        <v>346</v>
-      </c>
-      <c r="C55" s="1">
-        <v>757</v>
-      </c>
-      <c r="D55" s="1">
-        <v>506</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1001</v>
-      </c>
-      <c r="F55" s="1">
-        <v>235</v>
-      </c>
-      <c r="G55" s="1">
-        <v>289</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1001</v>
-      </c>
-      <c r="I55" s="1">
-        <v>1001</v>
-      </c>
-      <c r="J55" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K55" s="1">
-        <v>171</v>
-      </c>
-      <c r="L55" s="1">
-        <v>174</v>
-      </c>
-      <c r="M55" s="1">
-        <v>410</v>
-      </c>
-      <c r="N55" s="1">
-        <v>1001</v>
-      </c>
-      <c r="O55" s="1">
-        <v>1001</v>
-      </c>
-      <c r="P55" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56">
-        <v>34</v>
-      </c>
-      <c r="C56">
-        <v>31</v>
-      </c>
-      <c r="D56">
-        <v>28</v>
-      </c>
-      <c r="E56">
-        <v>30</v>
-      </c>
-      <c r="F56">
-        <v>8</v>
-      </c>
-      <c r="G56">
-        <v>47</v>
-      </c>
-      <c r="H56">
-        <v>40</v>
-      </c>
-      <c r="I56">
-        <v>44</v>
-      </c>
-      <c r="J56">
-        <v>29</v>
-      </c>
-      <c r="K56">
-        <v>6</v>
-      </c>
-      <c r="L56">
-        <v>85</v>
-      </c>
-      <c r="M56">
-        <v>80</v>
-      </c>
-      <c r="N56">
-        <v>55</v>
-      </c>
-      <c r="O56">
-        <v>48</v>
-      </c>
-      <c r="P56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57">
-        <v>40</v>
-      </c>
-      <c r="C57">
-        <v>33</v>
-      </c>
-      <c r="D57">
-        <v>32</v>
-      </c>
-      <c r="E57">
-        <v>36</v>
-      </c>
-      <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="G57">
-        <v>61</v>
-      </c>
-      <c r="H57">
-        <v>55</v>
-      </c>
-      <c r="I57">
-        <v>42</v>
-      </c>
-      <c r="J57">
-        <v>45</v>
-      </c>
-      <c r="K57">
-        <v>9</v>
-      </c>
-      <c r="L57">
-        <v>107</v>
-      </c>
-      <c r="M57">
-        <v>94</v>
-      </c>
-      <c r="N57">
-        <v>72</v>
-      </c>
-      <c r="O57">
-        <v>76</v>
-      </c>
-      <c r="P57">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58">
-        <v>53</v>
-      </c>
-      <c r="C58">
-        <v>48</v>
-      </c>
-      <c r="D58">
-        <v>39</v>
-      </c>
-      <c r="E58">
-        <v>38</v>
-      </c>
-      <c r="F58">
-        <v>12</v>
-      </c>
-      <c r="G58">
-        <v>71</v>
-      </c>
-      <c r="H58">
-        <v>65</v>
-      </c>
-      <c r="I58">
-        <v>51</v>
-      </c>
-      <c r="J58">
-        <v>47</v>
-      </c>
-      <c r="K58">
-        <v>16</v>
-      </c>
-      <c r="L58">
-        <v>110</v>
-      </c>
-      <c r="M58">
-        <v>107</v>
-      </c>
-      <c r="N58">
-        <v>90</v>
-      </c>
-      <c r="O58">
-        <v>76</v>
-      </c>
-      <c r="P58">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59">
-        <v>71</v>
-      </c>
-      <c r="C59">
-        <v>70</v>
-      </c>
-      <c r="D59">
-        <v>46</v>
-      </c>
-      <c r="E59">
-        <v>51</v>
-      </c>
-      <c r="F59">
-        <v>21</v>
-      </c>
-      <c r="G59">
-        <v>97</v>
-      </c>
-      <c r="H59">
-        <v>86</v>
-      </c>
-      <c r="I59">
-        <v>71</v>
-      </c>
-      <c r="J59">
-        <v>66</v>
-      </c>
-      <c r="K59">
-        <v>21</v>
-      </c>
-      <c r="L59">
-        <v>150</v>
-      </c>
-      <c r="M59">
-        <v>163</v>
-      </c>
-      <c r="N59">
-        <v>109</v>
-      </c>
-      <c r="O59">
-        <v>91</v>
-      </c>
-      <c r="P59">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60">
-        <v>90</v>
-      </c>
-      <c r="C60">
-        <v>82</v>
-      </c>
-      <c r="D60">
-        <v>65</v>
-      </c>
-      <c r="E60">
-        <v>52</v>
-      </c>
-      <c r="F60">
-        <v>26</v>
-      </c>
-      <c r="G60">
-        <v>106</v>
-      </c>
-      <c r="H60">
-        <v>117</v>
-      </c>
-      <c r="I60">
-        <v>79</v>
-      </c>
-      <c r="J60">
-        <v>75</v>
-      </c>
-      <c r="K60">
-        <v>32</v>
-      </c>
-      <c r="L60">
-        <v>208</v>
-      </c>
-      <c r="M60">
-        <v>188</v>
-      </c>
-      <c r="N60">
-        <v>137</v>
-      </c>
-      <c r="O60">
-        <v>126</v>
-      </c>
-      <c r="P60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61">
-        <v>112</v>
-      </c>
-      <c r="C61">
-        <v>112</v>
-      </c>
-      <c r="D61">
-        <v>83</v>
-      </c>
-      <c r="E61">
-        <v>80</v>
-      </c>
-      <c r="F61">
-        <v>41</v>
-      </c>
-      <c r="G61">
-        <v>149</v>
-      </c>
-      <c r="H61">
-        <v>137</v>
-      </c>
-      <c r="I61">
-        <v>108</v>
-      </c>
-      <c r="J61">
-        <v>107</v>
-      </c>
-      <c r="K61">
-        <v>46</v>
-      </c>
-      <c r="L61">
-        <v>277</v>
-      </c>
-      <c r="M61">
-        <v>310</v>
-      </c>
-      <c r="N61">
-        <v>239</v>
-      </c>
-      <c r="O61">
-        <v>221</v>
-      </c>
-      <c r="P61">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62">
-        <v>158</v>
-      </c>
-      <c r="C62">
-        <v>147</v>
-      </c>
-      <c r="D62">
-        <v>132</v>
-      </c>
-      <c r="E62">
-        <v>120</v>
-      </c>
-      <c r="F62">
-        <v>68</v>
-      </c>
-      <c r="G62">
-        <v>259</v>
-      </c>
-      <c r="H62">
-        <v>255</v>
-      </c>
-      <c r="I62">
-        <v>194</v>
-      </c>
-      <c r="J62">
-        <v>175</v>
-      </c>
-      <c r="K62">
-        <v>76</v>
-      </c>
-      <c r="L62">
-        <v>830</v>
-      </c>
-      <c r="M62">
-        <v>892</v>
-      </c>
-      <c r="N62">
-        <v>606</v>
-      </c>
-      <c r="O62">
-        <v>563</v>
-      </c>
-      <c r="P62">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63">
-        <v>433</v>
-      </c>
-      <c r="C63">
-        <v>416</v>
-      </c>
-      <c r="D63">
-        <v>318</v>
-      </c>
-      <c r="E63">
-        <v>287</v>
-      </c>
-      <c r="F63">
-        <v>131</v>
-      </c>
-      <c r="G63">
-        <v>1001</v>
-      </c>
-      <c r="H63">
-        <v>1001</v>
-      </c>
-      <c r="I63">
-        <v>1001</v>
-      </c>
-      <c r="J63">
-        <v>767</v>
-      </c>
-      <c r="K63">
-        <v>215</v>
-      </c>
-      <c r="L63">
-        <v>195</v>
-      </c>
-      <c r="M63">
-        <v>926</v>
-      </c>
-      <c r="N63">
-        <v>949</v>
-      </c>
-      <c r="O63">
-        <v>1001</v>
-      </c>
-      <c r="P63">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" s="1" customFormat="1">
-      <c r="A64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="1">
-        <v>305</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1001</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1001</v>
-      </c>
-      <c r="F64" s="1">
-        <v>211</v>
-      </c>
-      <c r="G64" s="1">
-        <v>242</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1001</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1001</v>
-      </c>
-      <c r="J64" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K64" s="1">
-        <v>192</v>
-      </c>
-      <c r="L64" s="1">
-        <v>194</v>
-      </c>
-      <c r="M64" s="1">
-        <v>1001</v>
-      </c>
-      <c r="N64" s="1">
-        <v>1001</v>
-      </c>
-      <c r="O64" s="1">
-        <v>1001</v>
-      </c>
-      <c r="P64" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65">
-        <v>44</v>
-      </c>
-      <c r="C65">
-        <v>30</v>
-      </c>
-      <c r="D65">
-        <v>30</v>
-      </c>
-      <c r="E65">
-        <v>35</v>
-      </c>
-      <c r="F65">
-        <v>7</v>
-      </c>
-      <c r="G65">
-        <v>51</v>
-      </c>
-      <c r="H65">
-        <v>43</v>
-      </c>
-      <c r="I65">
-        <v>44</v>
-      </c>
-      <c r="J65">
-        <v>32</v>
-      </c>
-      <c r="K65">
-        <v>7</v>
-      </c>
-      <c r="L65">
-        <v>87</v>
-      </c>
-      <c r="M65">
-        <v>80</v>
-      </c>
-      <c r="N65">
-        <v>54</v>
-      </c>
-      <c r="O65">
-        <v>57</v>
-      </c>
-      <c r="P65">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66">
-        <v>43</v>
-      </c>
-      <c r="C66">
-        <v>42</v>
-      </c>
-      <c r="D66">
-        <v>34</v>
-      </c>
-      <c r="E66">
-        <v>32</v>
-      </c>
-      <c r="F66">
-        <v>10</v>
-      </c>
-      <c r="G66">
-        <v>63</v>
-      </c>
-      <c r="H66">
-        <v>51</v>
-      </c>
-      <c r="I66">
-        <v>53</v>
-      </c>
-      <c r="J66">
-        <v>41</v>
-      </c>
-      <c r="K66">
-        <v>12</v>
-      </c>
-      <c r="L66">
-        <v>104</v>
-      </c>
-      <c r="M66">
-        <v>102</v>
-      </c>
-      <c r="N66">
-        <v>71</v>
-      </c>
-      <c r="O66">
-        <v>65</v>
-      </c>
-      <c r="P66">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67">
-        <v>49</v>
-      </c>
-      <c r="C67">
-        <v>49</v>
-      </c>
-      <c r="D67">
-        <v>38</v>
-      </c>
-      <c r="E67">
-        <v>34</v>
-      </c>
-      <c r="F67">
-        <v>15</v>
-      </c>
-      <c r="G67">
-        <v>63</v>
-      </c>
-      <c r="H67">
-        <v>66</v>
-      </c>
-      <c r="I67">
-        <v>52</v>
-      </c>
-      <c r="J67">
-        <v>47</v>
-      </c>
-      <c r="K67">
-        <v>17</v>
-      </c>
-      <c r="L67">
-        <v>124</v>
-      </c>
-      <c r="M67">
-        <v>113</v>
-      </c>
-      <c r="N67">
-        <v>76</v>
-      </c>
-      <c r="O67">
-        <v>76</v>
-      </c>
-      <c r="P67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68">
-        <v>60</v>
-      </c>
-      <c r="C68">
-        <v>63</v>
-      </c>
-      <c r="D68">
-        <v>49</v>
-      </c>
-      <c r="E68">
-        <v>44</v>
-      </c>
-      <c r="F68">
-        <v>19</v>
-      </c>
-      <c r="G68">
-        <v>91</v>
-      </c>
-      <c r="H68">
-        <v>85</v>
-      </c>
-      <c r="I68">
-        <v>65</v>
-      </c>
-      <c r="J68">
-        <v>65</v>
-      </c>
-      <c r="K68">
-        <v>22</v>
-      </c>
-      <c r="L68">
-        <v>160</v>
-      </c>
-      <c r="M68">
-        <v>160</v>
-      </c>
-      <c r="N68">
-        <v>111</v>
-      </c>
-      <c r="O68">
-        <v>99</v>
-      </c>
-      <c r="P68">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69">
-        <v>20</v>
-      </c>
-      <c r="C69">
-        <v>69</v>
-      </c>
-      <c r="D69">
-        <v>64</v>
-      </c>
-      <c r="E69">
-        <v>59</v>
-      </c>
-      <c r="F69">
-        <v>26</v>
-      </c>
-      <c r="G69">
-        <v>107</v>
-      </c>
-      <c r="H69">
-        <v>114</v>
-      </c>
-      <c r="I69">
-        <v>80</v>
-      </c>
-      <c r="J69">
-        <v>75</v>
-      </c>
-      <c r="K69">
-        <v>31</v>
-      </c>
-      <c r="L69">
-        <v>192</v>
-      </c>
-      <c r="M69">
-        <v>196</v>
-      </c>
-      <c r="N69">
-        <v>150</v>
-      </c>
-      <c r="O69">
-        <v>125</v>
-      </c>
-      <c r="P69">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70">
-        <v>105</v>
-      </c>
-      <c r="C70">
-        <v>97</v>
-      </c>
-      <c r="D70">
-        <v>82</v>
-      </c>
-      <c r="E70">
-        <v>76</v>
-      </c>
-      <c r="F70">
-        <v>38</v>
-      </c>
-      <c r="G70">
-        <v>133</v>
-      </c>
-      <c r="H70">
-        <v>145</v>
-      </c>
-      <c r="I70">
-        <v>116</v>
-      </c>
-      <c r="J70">
-        <v>108</v>
-      </c>
-      <c r="K70">
-        <v>47</v>
-      </c>
-      <c r="L70">
-        <v>276</v>
-      </c>
-      <c r="M70">
-        <v>316</v>
-      </c>
-      <c r="N70">
-        <v>248</v>
-      </c>
-      <c r="O70">
-        <v>205</v>
-      </c>
-      <c r="P70">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71">
-        <v>143</v>
-      </c>
-      <c r="C71">
-        <v>137</v>
-      </c>
-      <c r="D71">
-        <v>126</v>
-      </c>
-      <c r="E71">
-        <v>115</v>
-      </c>
-      <c r="F71">
-        <v>64</v>
-      </c>
-      <c r="G71">
-        <v>236</v>
-      </c>
-      <c r="H71">
-        <v>232</v>
-      </c>
-      <c r="I71">
-        <v>186</v>
-      </c>
-      <c r="J71">
-        <v>171</v>
-      </c>
-      <c r="K71">
-        <v>76</v>
-      </c>
-      <c r="L71">
-        <v>763</v>
-      </c>
-      <c r="M71">
-        <v>808</v>
-      </c>
-      <c r="N71">
-        <v>587</v>
-      </c>
-      <c r="O71">
-        <v>492</v>
-      </c>
-      <c r="P71">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72">
-        <v>420</v>
-      </c>
-      <c r="C72">
-        <v>366</v>
-      </c>
-      <c r="D72">
-        <v>309</v>
-      </c>
-      <c r="E72">
-        <v>249</v>
-      </c>
-      <c r="F72">
-        <v>127</v>
-      </c>
-      <c r="G72">
-        <v>1001</v>
-      </c>
-      <c r="H72">
-        <v>1001</v>
-      </c>
-      <c r="I72">
-        <v>1001</v>
-      </c>
-      <c r="J72">
-        <v>830</v>
-      </c>
-      <c r="K72">
-        <v>246</v>
-      </c>
-      <c r="L72">
-        <v>174</v>
-      </c>
-      <c r="M72">
-        <v>1001</v>
-      </c>
-      <c r="N72">
-        <v>1001</v>
-      </c>
-      <c r="O72">
-        <v>1001</v>
-      </c>
-      <c r="P72">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" s="1" customFormat="1">
-      <c r="A73" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="1">
-        <v>273</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D73" s="1">
-        <v>239</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1001</v>
-      </c>
-      <c r="F73" s="1">
-        <v>186</v>
-      </c>
-      <c r="G73" s="1">
-        <v>223</v>
-      </c>
-      <c r="H73" s="1">
-        <v>781</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1001</v>
-      </c>
-      <c r="J73" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K73" s="1">
-        <v>133</v>
-      </c>
-      <c r="L73" s="1">
-        <v>175</v>
-      </c>
-      <c r="M73" s="1">
-        <v>297</v>
-      </c>
-      <c r="N73" s="1">
-        <v>1001</v>
-      </c>
-      <c r="O73" s="1">
-        <v>1001</v>
-      </c>
-      <c r="P73" s="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74">
-        <v>41</v>
-      </c>
-      <c r="C74">
-        <v>39</v>
-      </c>
-      <c r="D74">
-        <v>28</v>
-      </c>
-      <c r="E74">
-        <v>22</v>
-      </c>
-      <c r="F74">
-        <v>7</v>
-      </c>
-      <c r="G74">
-        <v>53</v>
-      </c>
-      <c r="H74">
-        <v>44</v>
-      </c>
-      <c r="I74">
-        <v>40</v>
-      </c>
-      <c r="J74">
-        <v>38</v>
-      </c>
-      <c r="K74">
-        <v>7</v>
-      </c>
-      <c r="L74">
-        <v>86</v>
-      </c>
-      <c r="M74">
-        <v>89</v>
-      </c>
-      <c r="N74">
-        <v>62</v>
-      </c>
-      <c r="O74">
-        <v>64</v>
-      </c>
-      <c r="P74">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75">
-        <v>49</v>
-      </c>
-      <c r="C75">
-        <v>40</v>
-      </c>
-      <c r="D75">
-        <v>35</v>
-      </c>
-      <c r="E75">
-        <v>34</v>
-      </c>
-      <c r="F75">
-        <v>10</v>
-      </c>
-      <c r="G75">
-        <v>57</v>
-      </c>
-      <c r="H75">
-        <v>64</v>
-      </c>
-      <c r="I75">
-        <v>54</v>
-      </c>
-      <c r="J75">
-        <v>45</v>
-      </c>
-      <c r="K75">
-        <v>11</v>
-      </c>
-      <c r="L75">
-        <v>100</v>
-      </c>
-      <c r="M75">
-        <v>115</v>
-      </c>
-      <c r="N75">
-        <v>76</v>
-      </c>
-      <c r="O75">
-        <v>72</v>
-      </c>
-      <c r="P75">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76">
-        <v>47</v>
-      </c>
-      <c r="C76">
-        <v>37</v>
-      </c>
-      <c r="D76">
-        <v>45</v>
-      </c>
-      <c r="E76">
-        <v>38</v>
-      </c>
-      <c r="F76">
-        <v>12</v>
-      </c>
-      <c r="G76">
-        <v>72</v>
-      </c>
-      <c r="H76">
-        <v>67</v>
-      </c>
-      <c r="I76">
-        <v>43</v>
-      </c>
-      <c r="J76">
-        <v>52</v>
-      </c>
-      <c r="K76">
-        <v>15</v>
-      </c>
-      <c r="L76">
-        <v>114</v>
-      </c>
-      <c r="M76">
-        <v>125</v>
-      </c>
-      <c r="N76">
-        <v>97</v>
-      </c>
-      <c r="O76">
-        <v>75</v>
-      </c>
-      <c r="P76">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77">
-        <v>59</v>
-      </c>
-      <c r="C77">
-        <v>62</v>
-      </c>
-      <c r="D77">
-        <v>47</v>
-      </c>
-      <c r="E77">
-        <v>50</v>
-      </c>
-      <c r="F77">
-        <v>16</v>
-      </c>
-      <c r="G77">
-        <v>85</v>
-      </c>
-      <c r="H77">
-        <v>82</v>
-      </c>
-      <c r="I77">
-        <v>76</v>
-      </c>
-      <c r="J77">
-        <v>67</v>
-      </c>
-      <c r="K77">
-        <v>21</v>
-      </c>
-      <c r="L77">
-        <v>144</v>
-      </c>
-      <c r="M77">
-        <v>152</v>
-      </c>
-      <c r="N77">
-        <v>96</v>
-      </c>
-      <c r="O77">
-        <v>105</v>
-      </c>
-      <c r="P77">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78">
-        <v>83</v>
-      </c>
-      <c r="C78">
-        <v>70</v>
-      </c>
-      <c r="D78">
-        <v>64</v>
-      </c>
-      <c r="E78">
-        <v>59</v>
-      </c>
-      <c r="F78">
-        <v>21</v>
-      </c>
-      <c r="G78">
-        <v>109</v>
-      </c>
-      <c r="H78">
-        <v>105</v>
-      </c>
-      <c r="I78">
-        <v>89</v>
-      </c>
-      <c r="J78">
-        <v>84</v>
-      </c>
-      <c r="K78">
-        <v>28</v>
-      </c>
-      <c r="L78">
-        <v>192</v>
-      </c>
-      <c r="M78">
-        <v>197</v>
-      </c>
-      <c r="N78">
-        <v>167</v>
-      </c>
-      <c r="O78">
-        <v>142</v>
-      </c>
-      <c r="P78">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79">
-        <v>100</v>
-      </c>
-      <c r="C79">
-        <v>85</v>
-      </c>
-      <c r="D79">
-        <v>84</v>
-      </c>
-      <c r="E79">
-        <v>72</v>
-      </c>
-      <c r="F79">
-        <v>30</v>
-      </c>
-      <c r="G79">
-        <v>126</v>
-      </c>
-      <c r="H79">
-        <v>143</v>
-      </c>
-      <c r="I79">
-        <v>126</v>
-      </c>
-      <c r="J79">
-        <v>110</v>
-      </c>
-      <c r="K79">
-        <v>44</v>
-      </c>
-      <c r="L79">
-        <v>312</v>
-      </c>
-      <c r="M79">
-        <v>320</v>
-      </c>
-      <c r="N79">
-        <v>231</v>
-      </c>
-      <c r="O79">
-        <v>257</v>
-      </c>
-      <c r="P79">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80">
-        <v>157</v>
-      </c>
-      <c r="C80">
-        <v>144</v>
-      </c>
-      <c r="D80">
-        <v>113</v>
-      </c>
-      <c r="E80">
-        <v>113</v>
-      </c>
-      <c r="F80">
-        <v>56</v>
-      </c>
-      <c r="G80">
-        <v>242</v>
-      </c>
-      <c r="H80">
-        <v>245</v>
-      </c>
-      <c r="I80">
-        <v>213</v>
-      </c>
-      <c r="J80">
-        <v>183</v>
-      </c>
-      <c r="K80">
-        <v>72</v>
-      </c>
-      <c r="L80">
-        <v>821</v>
-      </c>
-      <c r="M80">
-        <v>869</v>
-      </c>
-      <c r="N80">
-        <v>607</v>
-      </c>
-      <c r="O80">
-        <v>578</v>
-      </c>
-      <c r="P80">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81">
-        <v>75</v>
-      </c>
-      <c r="C81">
-        <v>375</v>
-      </c>
-      <c r="D81">
-        <v>318</v>
-      </c>
-      <c r="E81">
-        <v>243</v>
-      </c>
-      <c r="F81">
-        <v>118</v>
-      </c>
-      <c r="G81">
-        <v>1001</v>
-      </c>
-      <c r="H81">
-        <v>1001</v>
-      </c>
-      <c r="I81">
-        <v>1001</v>
-      </c>
-      <c r="J81">
-        <v>901</v>
-      </c>
-      <c r="K81">
-        <v>294</v>
-      </c>
-      <c r="L81">
-        <v>159</v>
-      </c>
-      <c r="M81">
-        <v>226</v>
-      </c>
-      <c r="N81">
-        <v>1001</v>
-      </c>
-      <c r="O81">
-        <v>1001</v>
-      </c>
-      <c r="P81">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" s="1" customFormat="1">
-      <c r="A82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" s="1">
-        <v>242</v>
-      </c>
-      <c r="C82" s="1">
-        <v>429</v>
-      </c>
-      <c r="D82" s="1">
-        <v>1001</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1001</v>
-      </c>
-      <c r="F82" s="1">
-        <v>149</v>
-      </c>
-      <c r="G82" s="1">
-        <v>126</v>
-      </c>
-      <c r="H82" s="1">
-        <v>967</v>
-      </c>
-      <c r="I82" s="1">
-        <v>553</v>
-      </c>
-      <c r="J82" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K82" s="1">
-        <v>127</v>
-      </c>
-      <c r="L82" s="1">
-        <v>58</v>
-      </c>
-      <c r="M82" s="1">
-        <v>1001</v>
-      </c>
-      <c r="N82" s="1">
-        <v>680</v>
-      </c>
-      <c r="O82" s="1">
-        <v>1001</v>
-      </c>
-      <c r="P82" s="1">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P86"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="20.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
       <c r="B2" t="s">
         <v>193</v>
       </c>
@@ -17747,7 +17852,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F73">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"MAX_EPOCHE"</formula>
     </cfRule>
   </conditionalFormatting>
